--- a/CyberOasisProjectReborn/scripts/market_performers/performance.xlsx
+++ b/CyberOasisProjectReborn/scripts/market_performers/performance.xlsx
@@ -88,9 +88,6 @@
     <t>ZIL/USDT</t>
   </si>
   <si>
-    <t>ZRX/USDT</t>
-  </si>
-  <si>
     <t>FET/USDT</t>
   </si>
   <si>
@@ -184,6 +181,9 @@
     <t>HBAR/USDT</t>
   </si>
   <si>
+    <t>NKN/USDT</t>
+  </si>
+  <si>
     <t>STX/USDT</t>
   </si>
   <si>
@@ -223,6 +223,9 @@
     <t>STMX/USDT</t>
   </si>
   <si>
+    <t>KNC/USDT</t>
+  </si>
+  <si>
     <t>LRC/USDT</t>
   </si>
   <si>
@@ -280,9 +283,6 @@
     <t>SUSHI/USDT</t>
   </si>
   <si>
-    <t>YFII/USDT</t>
-  </si>
-  <si>
     <t>KSM/USDT</t>
   </si>
   <si>
@@ -298,9 +298,6 @@
     <t>BEL/USDT</t>
   </si>
   <si>
-    <t>WING/USDT</t>
-  </si>
-  <si>
     <t>UNI/USDT</t>
   </si>
   <si>
@@ -364,6 +361,9 @@
     <t>OG/USDT</t>
   </si>
   <si>
+    <t>ATM/USDT</t>
+  </si>
+  <si>
     <t>ASR/USDT</t>
   </si>
   <si>
@@ -403,9 +403,6 @@
     <t>OM/USDT</t>
   </si>
   <si>
-    <t>POND/USDT</t>
-  </si>
-  <si>
     <t>DEGO/USDT</t>
   </si>
   <si>
@@ -424,9 +421,6 @@
     <t>CFX/USDT</t>
   </si>
   <si>
-    <t>TKO/USDT</t>
-  </si>
-  <si>
     <t>TLM/USDT</t>
   </si>
   <si>
@@ -454,6 +448,9 @@
     <t>MASK/USDT</t>
   </si>
   <si>
+    <t>XVG/USDT</t>
+  </si>
+  <si>
     <t>ATA/USDT</t>
   </si>
   <si>
@@ -466,9 +463,6 @@
     <t>KLAY/USDT</t>
   </si>
   <si>
-    <t>PHA/USDT</t>
-  </si>
-  <si>
     <t>BOND/USDT</t>
   </si>
   <si>
@@ -493,9 +487,6 @@
     <t>QUICK/USDT</t>
   </si>
   <si>
-    <t>MBOX/USDT</t>
-  </si>
-  <si>
     <t>XEC/USDT</t>
   </si>
   <si>
@@ -517,6 +508,9 @@
     <t>FIDA/USDT</t>
   </si>
   <si>
+    <t>AGLD/USDT</t>
+  </si>
+  <si>
     <t>RAD/USDT</t>
   </si>
   <si>
@@ -532,9 +526,6 @@
     <t>CHESS/USDT</t>
   </si>
   <si>
-    <t>ADX/USDT</t>
-  </si>
-  <si>
     <t>AUCTION/USDT</t>
   </si>
   <si>
@@ -634,6 +625,12 @@
     <t>APE/USDT</t>
   </si>
   <si>
+    <t>BSW/USDT</t>
+  </si>
+  <si>
+    <t>MOB/USDT</t>
+  </si>
+  <si>
     <t>GAL/USDT</t>
   </si>
   <si>
@@ -689,6 +686,9 @@
   </si>
   <si>
     <t>SYN/USDT</t>
+  </si>
+  <si>
+    <t>VIB/USDT</t>
   </si>
   <si>
     <t>SSV/USDT</t>
@@ -1101,16 +1101,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.001326847843872265</v>
+        <v>0.01296273214508297</v>
       </c>
       <c r="C2">
-        <v>0.01132896179297771</v>
+        <v>0.004040401036198554</v>
       </c>
       <c r="D2">
-        <v>2.17</v>
+        <v>0.75</v>
       </c>
       <c r="E2">
-        <v>2.32</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1118,16 +1118,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.001980851766259567</v>
+        <v>0.01778107565888924</v>
       </c>
       <c r="C3">
-        <v>0.01860324464778717</v>
+        <v>0.00547964859615036</v>
       </c>
       <c r="D3">
-        <v>1.99</v>
+        <v>0.74</v>
       </c>
       <c r="E3">
-        <v>2.22</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1135,16 +1135,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.002588996763754082</v>
+        <v>0.01291572489505974</v>
       </c>
       <c r="C4">
-        <v>0.007159127888057236</v>
+        <v>0.0003228931223765668</v>
       </c>
       <c r="D4">
-        <v>1.53</v>
+        <v>0.76</v>
       </c>
       <c r="E4">
-        <v>1.6</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1152,16 +1152,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>-0.01053740779768173</v>
+        <v>0.07859358841778695</v>
       </c>
       <c r="C5">
-        <v>0.0138592750533048</v>
+        <v>0.03965702036441578</v>
       </c>
       <c r="D5">
-        <v>2.07</v>
+        <v>0.39</v>
       </c>
       <c r="E5">
-        <v>2.38</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1169,16 +1169,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>-0.00422169300714441</v>
+        <v>0.0009844672938088318</v>
       </c>
       <c r="C6">
-        <v>0.03447508896797147</v>
+        <v>-0.008664572728257307</v>
       </c>
       <c r="D6">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="E6">
-        <v>2.17</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1186,16 +1186,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>-0.01236881559220403</v>
+        <v>0.03876852907639693</v>
       </c>
       <c r="C7">
-        <v>0.03009259259259253</v>
+        <v>0.01033690658499222</v>
       </c>
       <c r="D7">
-        <v>1.85</v>
+        <v>0.36</v>
       </c>
       <c r="E7">
-        <v>2.11</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1203,16 +1203,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>-0.01165311653116523</v>
+        <v>0.008977149075081679</v>
       </c>
       <c r="C8">
-        <v>0.004344284550638041</v>
+        <v>0.01793598233995587</v>
       </c>
       <c r="D8">
-        <v>1.67</v>
+        <v>0.92</v>
       </c>
       <c r="E8">
-        <v>1.85</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1220,16 +1220,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>-0.003425390708627682</v>
+        <v>0.001087902523933857</v>
       </c>
       <c r="C9">
-        <v>0.03105726872246696</v>
+        <v>-0.005811450710288497</v>
       </c>
       <c r="D9">
-        <v>2.06</v>
+        <v>0.79</v>
       </c>
       <c r="E9">
-        <v>1.91</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1237,16 +1237,16 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>-0.002272727272727275</v>
+        <v>0.005834305717619608</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>-0.0149425287356322</v>
       </c>
       <c r="D10">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>1.79</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1254,16 +1254,16 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>-0.02291325695581005</v>
+        <v>0.01753424657534251</v>
       </c>
       <c r="C11">
-        <v>0.01268615554329854</v>
+        <v>0.03011363636363636</v>
       </c>
       <c r="D11">
-        <v>1.37</v>
+        <v>0.98</v>
       </c>
       <c r="E11">
-        <v>1.1</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1271,16 +1271,16 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>-0.01233183856502246</v>
+        <v>-0.001133786848072595</v>
       </c>
       <c r="C12">
-        <v>0.01594533029612754</v>
+        <v>-0.001132502831257111</v>
       </c>
       <c r="D12">
-        <v>1.25</v>
+        <v>0.85</v>
       </c>
       <c r="E12">
-        <v>1.43</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1288,16 +1288,16 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>-0.007713248638838507</v>
+        <v>0.05174701459531188</v>
       </c>
       <c r="C13">
-        <v>0.01144688644688646</v>
+        <v>0.03344021988089785</v>
       </c>
       <c r="D13">
-        <v>2.4</v>
+        <v>0.42</v>
       </c>
       <c r="E13">
-        <v>2.35</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1305,16 +1305,16 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.02407590992777217</v>
+        <v>-0.01268713524486172</v>
       </c>
       <c r="C14">
-        <v>0.0100100100100099</v>
+        <v>0.02241265655899793</v>
       </c>
       <c r="D14">
-        <v>1.11</v>
+        <v>0.82</v>
       </c>
       <c r="E14">
-        <v>1.12</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1322,16 +1322,16 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>-0.001633986928104637</v>
+        <v>-0.007583965330444234</v>
       </c>
       <c r="C15">
-        <v>0.02735901730876596</v>
+        <v>0.00329489291598016</v>
       </c>
       <c r="D15">
-        <v>1.73</v>
+        <v>0.8</v>
       </c>
       <c r="E15">
-        <v>1.96</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1339,16 +1339,16 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>-0.01828571428571438</v>
+        <v>0.008730158730158651</v>
       </c>
       <c r="C16">
-        <v>0.01075268817204289</v>
+        <v>-0.007072691552062962</v>
       </c>
       <c r="D16">
-        <v>1.62</v>
+        <v>0.92</v>
       </c>
       <c r="E16">
-        <v>1.84</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1356,16 +1356,16 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>-0.01525940996948126</v>
+        <v>0.01189860320744961</v>
       </c>
       <c r="C17">
-        <v>0.01656314699792965</v>
+        <v>0.007816571130797334</v>
       </c>
       <c r="D17">
-        <v>1.99</v>
+        <v>1</v>
       </c>
       <c r="E17">
-        <v>2.07</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1373,16 +1373,16 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.002157829839703968</v>
+        <v>0.003985896060095154</v>
       </c>
       <c r="C18">
-        <v>0.01117145073700544</v>
+        <v>0.0123666718194466</v>
       </c>
       <c r="D18">
-        <v>1.76</v>
+        <v>0.8</v>
       </c>
       <c r="E18">
-        <v>2.28</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1390,16 +1390,16 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>-0.006578947368420992</v>
+        <v>0.1557575757575758</v>
       </c>
       <c r="C19">
-        <v>0.04119850187265907</v>
+        <v>0.006695069993913511</v>
       </c>
       <c r="D19">
-        <v>1.27</v>
+        <v>0.27</v>
       </c>
       <c r="E19">
-        <v>1.23</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1407,16 +1407,16 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>-0.01245551601423486</v>
+        <v>0.0104230533415082</v>
       </c>
       <c r="C20">
-        <v>0.01563439567047504</v>
+        <v>-0.01450151057401809</v>
       </c>
       <c r="D20">
-        <v>1.36</v>
+        <v>0.89</v>
       </c>
       <c r="E20">
-        <v>1.46</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1424,16 +1424,16 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>-0.01232539030402636</v>
+        <v>0.0093856655290103</v>
       </c>
       <c r="C21">
-        <v>0.02692469499368959</v>
+        <v>-0.01469970600587987</v>
       </c>
       <c r="D21">
-        <v>1.79</v>
+        <v>0.95</v>
       </c>
       <c r="E21">
-        <v>1.78</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1441,16 +1441,16 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>-0.01350174216027871</v>
+        <v>0.01156546881453943</v>
       </c>
       <c r="C22">
-        <v>0.02406417112299472</v>
+        <v>-0.03107569721115538</v>
       </c>
       <c r="D22">
-        <v>2.69</v>
+        <v>1.23</v>
       </c>
       <c r="E22">
-        <v>3.03</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1458,16 +1458,16 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>-0.05647231389805656</v>
+        <v>0.005861136158701513</v>
       </c>
       <c r="C23">
-        <v>0.1391162029459901</v>
+        <v>0.01050708085883964</v>
       </c>
       <c r="D23">
-        <v>0.53</v>
+        <v>0.88</v>
       </c>
       <c r="E23">
-        <v>0.37</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1475,16 +1475,16 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>-0.01301615798922794</v>
+        <v>-0.001320132013201245</v>
       </c>
       <c r="C24">
-        <v>0.01781635449977152</v>
+        <v>0.0113712374581939</v>
       </c>
       <c r="D24">
-        <v>1.22</v>
+        <v>0.84</v>
       </c>
       <c r="E24">
-        <v>1.76</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1492,16 +1492,16 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.001322751322751436</v>
+        <v>0.003105590062111625</v>
       </c>
       <c r="C25">
-        <v>0.01474530831099207</v>
+        <v>-0.02431610942249231</v>
       </c>
       <c r="D25">
-        <v>1.01</v>
+        <v>0.82</v>
       </c>
       <c r="E25">
-        <v>1.07</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1509,16 +1509,16 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>-0.01492537313432836</v>
+        <v>0.01575630252100831</v>
       </c>
       <c r="C26">
-        <v>0.01208459214501506</v>
+        <v>0.004223864836325249</v>
       </c>
       <c r="D26">
-        <v>1.47</v>
+        <v>0.9</v>
       </c>
       <c r="E26">
-        <v>1.91</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1526,16 +1526,16 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>-0.00311203319502062</v>
+        <v>0.02956358517128119</v>
       </c>
       <c r="C27">
-        <v>0.01580611169652256</v>
+        <v>-0.0009380863039399243</v>
       </c>
       <c r="D27">
-        <v>1.84</v>
+        <v>0.77</v>
       </c>
       <c r="E27">
-        <v>2.03</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1543,16 +1543,16 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>-0.03345227475468335</v>
+        <v>0.003891050583657627</v>
       </c>
       <c r="C28">
-        <v>0.01124100719424461</v>
+        <v>0.003211009174311939</v>
       </c>
       <c r="D28">
-        <v>2.05</v>
+        <v>0.99</v>
       </c>
       <c r="E28">
-        <v>1.46</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1560,16 +1560,16 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>-0.01568803227252344</v>
+        <v>0.01390644753476613</v>
       </c>
       <c r="C29">
-        <v>0.04439252336448612</v>
+        <v>-0.01985111662531019</v>
       </c>
       <c r="D29">
-        <v>1.34</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>1.68</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1577,16 +1577,16 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>-0.008684863523573208</v>
+        <v>0.01401869158878506</v>
       </c>
       <c r="C30">
-        <v>0.01517067003792669</v>
+        <v>-0.006944444444444451</v>
       </c>
       <c r="D30">
-        <v>1.88</v>
+        <v>1.39</v>
       </c>
       <c r="E30">
-        <v>2.8</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1594,16 +1594,16 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>-0.01969365426695844</v>
+        <v>0.00235571260306233</v>
       </c>
       <c r="C31">
-        <v>0.01890989988876531</v>
+        <v>-0.0049736688121708</v>
       </c>
       <c r="D31">
-        <v>1.45</v>
+        <v>0.98</v>
       </c>
       <c r="E31">
-        <v>1.62</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1611,16 +1611,16 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>-0.006614897900488997</v>
+        <v>0.01854625043197789</v>
       </c>
       <c r="C32">
-        <v>0.0324483775811208</v>
+        <v>-0.001263496439237296</v>
       </c>
       <c r="D32">
-        <v>1.49</v>
+        <v>0.76</v>
       </c>
       <c r="E32">
-        <v>2.05</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1628,16 +1628,16 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.002297530155083287</v>
+        <v>-0.0007602394754346783</v>
       </c>
       <c r="C33">
-        <v>0.02621062529384107</v>
+        <v>0.003520456707897318</v>
       </c>
       <c r="D33">
-        <v>2.26</v>
+        <v>0.82</v>
       </c>
       <c r="E33">
-        <v>2.2</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1645,16 +1645,16 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>-0.0009450902561194393</v>
+        <v>-0.0006242197253432955</v>
       </c>
       <c r="C34">
-        <v>0.002273157795037025</v>
+        <v>-0.02433090024330907</v>
       </c>
       <c r="D34">
-        <v>1.91</v>
+        <v>0.83</v>
       </c>
       <c r="E34">
-        <v>2.06</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1662,16 +1662,16 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>-0.01825677267373367</v>
+        <v>0.01380452788514634</v>
       </c>
       <c r="C35">
-        <v>0.03977968176254598</v>
+        <v>-0.01811790156841547</v>
       </c>
       <c r="D35">
-        <v>1.99</v>
+        <v>0.92</v>
       </c>
       <c r="E35">
-        <v>1.98</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1679,16 +1679,16 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>-0.006199460916441964</v>
+        <v>0.003694581280788283</v>
       </c>
       <c r="C36">
-        <v>0.007051803634391079</v>
+        <v>-0.003690036900368939</v>
       </c>
       <c r="D36">
-        <v>2.89</v>
+        <v>0.92</v>
       </c>
       <c r="E36">
-        <v>2.74</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1696,16 +1696,16 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>-0.0131973605278943</v>
+        <v>-0.00178130994793101</v>
       </c>
       <c r="C37">
-        <v>0.02389705882352933</v>
+        <v>-0.00163912033875147</v>
       </c>
       <c r="D37">
-        <v>1.29</v>
+        <v>0.86</v>
       </c>
       <c r="E37">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1713,16 +1713,16 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>-0.005562338895672144</v>
+        <v>0.03028263795423959</v>
       </c>
       <c r="C38">
-        <v>0.02486111111111111</v>
+        <v>-0.005361930294906134</v>
       </c>
       <c r="D38">
-        <v>2.55</v>
+        <v>0.67</v>
       </c>
       <c r="E38">
-        <v>2.37</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1730,16 +1730,16 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.007304116865869786</v>
+        <v>0.01178781925343804</v>
       </c>
       <c r="C39">
-        <v>0.03075871496924112</v>
+        <v>-0.007384376214535531</v>
       </c>
       <c r="D39">
-        <v>1.47</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E39">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1747,16 +1747,16 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>-0.006883365200764803</v>
+        <v>-0.009150326797385666</v>
       </c>
       <c r="C40">
-        <v>0.02785406041584945</v>
+        <v>0.01062416998671986</v>
       </c>
       <c r="D40">
-        <v>1.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E40">
-        <v>1.97</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1764,16 +1764,16 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.004032258064516045</v>
+        <v>-0.01033735685546267</v>
       </c>
       <c r="C41">
-        <v>0.006775067750677487</v>
+        <v>-0.07448178943670218</v>
       </c>
       <c r="D41">
-        <v>1.34</v>
+        <v>1.06</v>
       </c>
       <c r="E41">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1781,16 +1781,16 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>-0.01855245075584058</v>
+        <v>0.01188118811881189</v>
       </c>
       <c r="C42">
-        <v>0.03543283402514585</v>
+        <v>0.002973240832507546</v>
       </c>
       <c r="D42">
-        <v>1.85</v>
+        <v>1.14</v>
       </c>
       <c r="E42">
-        <v>0.82</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1798,16 +1798,16 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.006802721088435488</v>
+        <v>0.1277782697246083</v>
       </c>
       <c r="C43">
-        <v>0.02497502497502511</v>
+        <v>0.04072231435415517</v>
       </c>
       <c r="D43">
-        <v>1.29</v>
+        <v>0.5</v>
       </c>
       <c r="E43">
-        <v>1.23</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1815,16 +1815,16 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.01110372971433977</v>
+        <v>0.0312180143295805</v>
       </c>
       <c r="C44">
-        <v>0.03668908227848092</v>
+        <v>-0.03392330383480824</v>
       </c>
       <c r="D44">
-        <v>2.18</v>
+        <v>1.48</v>
       </c>
       <c r="E44">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1832,16 +1832,16 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.006506506506506415</v>
+        <v>0.01184834123222752</v>
       </c>
       <c r="C45">
-        <v>-0.01526341703594295</v>
+        <v>-0.00822561692126904</v>
       </c>
       <c r="D45">
-        <v>2.31</v>
+        <v>0.79</v>
       </c>
       <c r="E45">
-        <v>2.31</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1849,16 +1849,16 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>-0.01371428571428568</v>
+        <v>0.3220810857838871</v>
       </c>
       <c r="C46">
-        <v>0.02450408401400229</v>
+        <v>0.03426510369702436</v>
       </c>
       <c r="D46">
-        <v>1.3</v>
+        <v>0.25</v>
       </c>
       <c r="E46">
-        <v>1.36</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1866,16 +1866,16 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>-0.004350405378682905</v>
+        <v>-0.001901140684410701</v>
       </c>
       <c r="C47">
-        <v>-0.005674036392095554</v>
+        <v>-0.01129943502824865</v>
       </c>
       <c r="D47">
-        <v>1.79</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>2.69</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1883,16 +1883,16 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>-0.009293680297397777</v>
+        <v>0.006896551724137937</v>
       </c>
       <c r="C48">
-        <v>0.02865329512893985</v>
+        <v>-0.0281501340482574</v>
       </c>
       <c r="D48">
-        <v>1.94</v>
+        <v>1.13</v>
       </c>
       <c r="E48">
-        <v>2.03</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1900,16 +1900,16 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.004663557628247913</v>
+        <v>-0.003344481605351174</v>
       </c>
       <c r="C49">
-        <v>0.03578802477632472</v>
+        <v>-0.003333333333333336</v>
       </c>
       <c r="D49">
-        <v>1.72</v>
+        <v>0.85</v>
       </c>
       <c r="E49">
-        <v>1.75</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1917,16 +1917,16 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>-0.008888888888888896</v>
+        <v>0.009834002045472435</v>
       </c>
       <c r="C50">
-        <v>0.01233183856502243</v>
+        <v>-0.00345830385915272</v>
       </c>
       <c r="D50">
-        <v>2.22</v>
+        <v>0.91</v>
       </c>
       <c r="E50">
-        <v>2.37</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1934,16 +1934,16 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>-0.01377970256162769</v>
+        <v>0.01337638376383757</v>
       </c>
       <c r="C51">
-        <v>0.01750496274717074</v>
+        <v>-0.01318181818181812</v>
       </c>
       <c r="D51">
-        <v>1.73</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E51">
-        <v>2.22</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1951,16 +1951,16 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>-0.00227272727272718</v>
+        <v>0.001919385796545161</v>
       </c>
       <c r="C52">
-        <v>0.02222222222222212</v>
+        <v>-0.007619047619047573</v>
       </c>
       <c r="D52">
-        <v>1.77</v>
+        <v>0.6</v>
       </c>
       <c r="E52">
-        <v>2.43</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1968,16 +1968,16 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>-0.001893939393939448</v>
+        <v>0.005842259006816001</v>
       </c>
       <c r="C53">
-        <v>0.0173076923076924</v>
+        <v>0.0009765624999998924</v>
       </c>
       <c r="D53">
-        <v>1.68</v>
+        <v>1.2</v>
       </c>
       <c r="E53">
-        <v>1.99</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1985,16 +1985,16 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.01092233009708735</v>
+        <v>0.01201011378002519</v>
       </c>
       <c r="C54">
-        <v>0.03219785347643481</v>
+        <v>-0.04243710215216736</v>
       </c>
       <c r="D54">
-        <v>1.17</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E54">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2002,16 +2002,16 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.02859960552268236</v>
+        <v>0.04847396768402138</v>
       </c>
       <c r="C55">
-        <v>0.05497925311203313</v>
+        <v>0.02061855670103095</v>
       </c>
       <c r="D55">
-        <v>1.06</v>
+        <v>0.38</v>
       </c>
       <c r="E55">
-        <v>1.2</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2019,16 +2019,16 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.11361804995971</v>
+        <v>0.09916805324459223</v>
       </c>
       <c r="C56">
-        <v>0.04477611940298512</v>
+        <v>0.05303425491218926</v>
       </c>
       <c r="D56">
-        <v>1.06</v>
+        <v>0.7</v>
       </c>
       <c r="E56">
-        <v>1.43</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2036,16 +2036,16 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>-0.002638522427440678</v>
+        <v>0.006578947368421089</v>
       </c>
       <c r="C57">
-        <v>0.02800361336946698</v>
+        <v>0.002628120893561149</v>
       </c>
       <c r="D57">
-        <v>1.45</v>
+        <v>0.89</v>
       </c>
       <c r="E57">
-        <v>1.84</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2053,16 +2053,16 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>-0.03304773561811495</v>
+        <v>0.0006273525721454767</v>
       </c>
       <c r="C58">
-        <v>0.03041825095057023</v>
+        <v>-0.0503554502369668</v>
       </c>
       <c r="D58">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="E58">
-        <v>1.8</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2070,16 +2070,16 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.007798960138648106</v>
+        <v>0.01048951048951039</v>
       </c>
       <c r="C59">
-        <v>0.02122015915119368</v>
+        <v>-0.004340277777777778</v>
       </c>
       <c r="D59">
-        <v>1.58</v>
+        <v>0.79</v>
       </c>
       <c r="E59">
-        <v>1.93</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2087,16 +2087,16 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>-0.002098635886673577</v>
+        <v>0.009615384615384593</v>
       </c>
       <c r="C60">
-        <v>0.03250270855904662</v>
+        <v>-0.01575630252100842</v>
       </c>
       <c r="D60">
-        <v>1.61</v>
+        <v>1.24</v>
       </c>
       <c r="E60">
-        <v>1.79</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2104,16 +2104,16 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>-0.01007194244604325</v>
+        <v>-0.005873715124816411</v>
       </c>
       <c r="C61">
-        <v>0.01014492753623177</v>
+        <v>-0.001461988304093609</v>
       </c>
       <c r="D61">
-        <v>1.46</v>
+        <v>0.83</v>
       </c>
       <c r="E61">
-        <v>1.66</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2121,16 +2121,16 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>-0.009789525208027377</v>
+        <v>0.007095793208312244</v>
       </c>
       <c r="C62">
-        <v>0.00837026095519457</v>
+        <v>-0.01143709597215318</v>
       </c>
       <c r="D62">
-        <v>1.76</v>
+        <v>0.8</v>
       </c>
       <c r="E62">
-        <v>2.21</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2138,16 +2138,16 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>-0.02992776057791537</v>
+        <v>0.001655629139072819</v>
       </c>
       <c r="C63">
-        <v>0.002092050209204936</v>
+        <v>-0.009787928221859685</v>
       </c>
       <c r="D63">
-        <v>1.55</v>
+        <v>1.03</v>
       </c>
       <c r="E63">
-        <v>1.02</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2155,16 +2155,16 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>-0.0107066381156317</v>
+        <v>0.02039329934450107</v>
       </c>
       <c r="C64">
-        <v>0.0369822485207101</v>
+        <v>-0.00290697674418613</v>
       </c>
       <c r="D64">
-        <v>2.47</v>
+        <v>0.88</v>
       </c>
       <c r="E64">
-        <v>2.37</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2172,16 +2172,16 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>-0.001826901118977019</v>
+        <v>0.1</v>
       </c>
       <c r="C65">
-        <v>0.07053020961775572</v>
+        <v>0.00734597156398099</v>
       </c>
       <c r="D65">
-        <v>0.77</v>
+        <v>0.29</v>
       </c>
       <c r="E65">
-        <v>0.59</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2189,16 +2189,16 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.001940491591203176</v>
+        <v>0.00710006656312401</v>
       </c>
       <c r="C66">
-        <v>0.0228923618754127</v>
+        <v>-0.01481481481481489</v>
       </c>
       <c r="D66">
-        <v>1.46</v>
+        <v>1.05</v>
       </c>
       <c r="E66">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2206,16 +2206,16 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>-0.01624129930394437</v>
+        <v>0.03305785123966945</v>
       </c>
       <c r="C67">
-        <v>0.02557980900409279</v>
+        <v>-0.01472995090016368</v>
       </c>
       <c r="D67">
-        <v>1.89</v>
+        <v>0.61</v>
       </c>
       <c r="E67">
-        <v>2.2</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2223,16 +2223,16 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>-0.01139838754517644</v>
+        <v>0.01686746987951813</v>
       </c>
       <c r="C68">
-        <v>0.02799999999999991</v>
+        <v>-0.01655405405405392</v>
       </c>
       <c r="D68">
-        <v>1.99</v>
+        <v>0.77</v>
       </c>
       <c r="E68">
-        <v>2.29</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2240,16 +2240,16 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>-0.009269988412514491</v>
+        <v>0.009423186750428277</v>
       </c>
       <c r="C69">
-        <v>0.02243211334120419</v>
+        <v>-0.00314735336194562</v>
       </c>
       <c r="D69">
-        <v>2.07</v>
+        <v>1</v>
       </c>
       <c r="E69">
-        <v>1.95</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2257,16 +2257,16 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.008347245409015033</v>
+        <v>0.03778040141676487</v>
       </c>
       <c r="C70">
-        <v>-0.001253656498119377</v>
+        <v>0.009535160905840294</v>
       </c>
       <c r="D70">
-        <v>2.08</v>
+        <v>0.74</v>
       </c>
       <c r="E70">
-        <v>1.58</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2274,16 +2274,16 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>-0.01286101083032487</v>
+        <v>0.004101722723543801</v>
       </c>
       <c r="C71">
-        <v>0.03992440349633822</v>
+        <v>0.02511511092507328</v>
       </c>
       <c r="D71">
-        <v>1.3</v>
+        <v>0.82</v>
       </c>
       <c r="E71">
-        <v>1.23</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2291,16 +2291,16 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>-0.009523809523809525</v>
+        <v>-0.003291020216267072</v>
       </c>
       <c r="C72">
-        <v>0.01610305958132045</v>
+        <v>-0.01501848428835491</v>
       </c>
       <c r="D72">
-        <v>2.44</v>
+        <v>1.01</v>
       </c>
       <c r="E72">
-        <v>4</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2308,16 +2308,16 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>-0.01071572988273346</v>
+        <v>0</v>
       </c>
       <c r="C73">
-        <v>0.009975570032573208</v>
+        <v>0.001602564102564103</v>
       </c>
       <c r="D73">
-        <v>1.7</v>
+        <v>0.89</v>
       </c>
       <c r="E73">
-        <v>1.46</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2325,16 +2325,16 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>-0.004206730769230769</v>
+        <v>-0.008066184074457</v>
       </c>
       <c r="C74">
-        <v>0.007106138494103417</v>
+        <v>-0.006189395502372607</v>
       </c>
       <c r="D74">
-        <v>1.31</v>
+        <v>1.07</v>
       </c>
       <c r="E74">
-        <v>1.53</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2342,16 +2342,16 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>-0.007680491551459299</v>
+        <v>0.0123141612854783</v>
       </c>
       <c r="C75">
-        <v>0.04487179487179482</v>
+        <v>0.0104767689037352</v>
       </c>
       <c r="D75">
-        <v>2.37</v>
+        <v>1.25</v>
       </c>
       <c r="E75">
-        <v>2.82</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2359,16 +2359,16 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>-0.01752921535893156</v>
+        <v>0.00318471337579627</v>
       </c>
       <c r="C76">
-        <v>-0.01889117043121144</v>
+        <v>-0.004754358161648314</v>
       </c>
       <c r="D76">
-        <v>2.05</v>
+        <v>1</v>
       </c>
       <c r="E76">
-        <v>0.98</v>
+        <v>1.65</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2376,16 +2376,16 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.04564032697547672</v>
+        <v>0.09298464092984636</v>
       </c>
       <c r="C77">
-        <v>0.03587759409074916</v>
+        <v>-0.02390599675850892</v>
       </c>
       <c r="D77">
-        <v>1.35</v>
+        <v>0.7</v>
       </c>
       <c r="E77">
-        <v>1.23</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2393,16 +2393,16 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.03577926015767128</v>
+        <v>-0.01063100137174227</v>
       </c>
       <c r="C78">
-        <v>0.01452410383189113</v>
+        <v>-0.03328938694792353</v>
       </c>
       <c r="D78">
-        <v>0.68</v>
+        <v>1.22</v>
       </c>
       <c r="E78">
-        <v>0.61</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2410,16 +2410,16 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>-0.001206272617611581</v>
+        <v>0.04170188785573405</v>
       </c>
       <c r="C79">
-        <v>0.02475247524752464</v>
+        <v>0.01085094231867512</v>
       </c>
       <c r="D79">
-        <v>1.48</v>
+        <v>0.88</v>
       </c>
       <c r="E79">
-        <v>1.41</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2427,16 +2427,16 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>-0.01107149559016704</v>
+        <v>0.02833530106257381</v>
       </c>
       <c r="C80">
-        <v>0.03621925237265166</v>
+        <v>0.007151370679380221</v>
       </c>
       <c r="D80">
-        <v>2.39</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E80">
-        <v>2.38</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2444,16 +2444,16 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>-0.03177405119152685</v>
+        <v>-0.006394109668668804</v>
       </c>
       <c r="C81">
-        <v>0.06561436087898483</v>
+        <v>-0.006347374495095365</v>
       </c>
       <c r="D81">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="E81">
-        <v>0.97</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2461,16 +2461,16 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.009509602834234432</v>
+        <v>0.01201108715737608</v>
       </c>
       <c r="C82">
-        <v>0.01976434815659447</v>
+        <v>-0.02169328110876766</v>
       </c>
       <c r="D82">
-        <v>1.2</v>
+        <v>1.05</v>
       </c>
       <c r="E82">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2478,16 +2478,16 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>-0.02529566360052556</v>
+        <v>0.009600903614457861</v>
       </c>
       <c r="C83">
-        <v>0.03565365025466895</v>
+        <v>-0.002064177143929466</v>
       </c>
       <c r="D83">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="E83">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2495,16 +2495,16 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.02040816326530618</v>
       </c>
       <c r="C84">
-        <v>0.01011122345803842</v>
+        <v>-0.009383378016085873</v>
       </c>
       <c r="D84">
-        <v>1.97</v>
+        <v>0.78</v>
       </c>
       <c r="E84">
-        <v>2.13</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2512,16 +2512,16 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>-0.006637168141592926</v>
+        <v>0</v>
       </c>
       <c r="C85">
-        <v>0.02610669693530082</v>
+        <v>-0.004520341536916122</v>
       </c>
       <c r="D85">
-        <v>1.5</v>
+        <v>0.59</v>
       </c>
       <c r="E85">
-        <v>1.44</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2529,16 +2529,16 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.01349693251533745</v>
+        <v>0.00335570469798658</v>
       </c>
       <c r="C86">
-        <v>0.01213892323255025</v>
+        <v>0.001118568232662193</v>
       </c>
       <c r="D86">
-        <v>1.39</v>
+        <v>0.92</v>
       </c>
       <c r="E86">
-        <v>1.64</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2546,16 +2546,16 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.01805337519623237</v>
+        <v>0.004726270185112288</v>
       </c>
       <c r="C87">
-        <v>0.006319115323854665</v>
+        <v>-0.005886970172684542</v>
       </c>
       <c r="D87">
-        <v>1.69</v>
+        <v>0.86</v>
       </c>
       <c r="E87">
-        <v>1.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2563,16 +2563,16 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.007301243915630156</v>
+        <v>0.003552883301448359</v>
       </c>
       <c r="C88">
-        <v>0.004073872895165632</v>
+        <v>-0.005992917461182208</v>
       </c>
       <c r="D88">
-        <v>1.04</v>
+        <v>0.77</v>
       </c>
       <c r="E88">
-        <v>1.05</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2580,16 +2580,16 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>-0.01371036846615254</v>
+        <v>0.0233812949640286</v>
       </c>
       <c r="C89">
-        <v>0.009499136442141728</v>
+        <v>-0.01938325991189429</v>
       </c>
       <c r="D89">
-        <v>1.94</v>
+        <v>0.77</v>
       </c>
       <c r="E89">
-        <v>1.83</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2597,16 +2597,16 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>-0.02345906163753437</v>
+        <v>0.001467710371820017</v>
       </c>
       <c r="C90">
-        <v>0.006481481481481384</v>
+        <v>-0.02606635071090034</v>
       </c>
       <c r="D90">
-        <v>2.36</v>
+        <v>0.87</v>
       </c>
       <c r="E90">
-        <v>3.5</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2614,16 +2614,16 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>-0.001337097013816687</v>
+        <v>0.005519093078759005</v>
       </c>
       <c r="C91">
-        <v>0.04399999999999993</v>
+        <v>0.01928332827209239</v>
       </c>
       <c r="D91">
-        <v>1.01</v>
+        <v>0.92</v>
       </c>
       <c r="E91">
-        <v>0.76</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2631,16 +2631,16 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.008605851979346078</v>
+        <v>0.0007833920877400015</v>
       </c>
       <c r="C92">
-        <v>0.01567944250871078</v>
+        <v>-0.0163492979419119</v>
       </c>
       <c r="D92">
-        <v>0.82</v>
+        <v>0.67</v>
       </c>
       <c r="E92">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2648,16 +2648,16 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>-0.01647631529676092</v>
+        <v>0.009608785175017197</v>
       </c>
       <c r="C93">
-        <v>0.01485431346410196</v>
+        <v>0.008990318118948754</v>
       </c>
       <c r="D93">
-        <v>1.79</v>
+        <v>0.71</v>
       </c>
       <c r="E93">
-        <v>1.74</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2665,16 +2665,16 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>-0.009491525423728851</v>
+        <v>0.001522732216662994</v>
       </c>
       <c r="C94">
-        <v>0.01654031702274295</v>
+        <v>-0.02815717587728508</v>
       </c>
       <c r="D94">
-        <v>2</v>
+        <v>1.05</v>
       </c>
       <c r="E94">
-        <v>2.16</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2682,16 +2682,16 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>-0.003499382461918556</v>
+        <v>-0.006573541495480765</v>
       </c>
       <c r="C95">
-        <v>0.01247401247401249</v>
+        <v>0.03808680248007085</v>
       </c>
       <c r="D95">
-        <v>1.51</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E95">
-        <v>2.02</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2699,16 +2699,16 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.1343424787133397</v>
+        <v>0.002008032128514013</v>
       </c>
       <c r="C96">
-        <v>0.07157464212678943</v>
+        <v>-0.007968127490039672</v>
       </c>
       <c r="D96">
-        <v>0.08</v>
+        <v>1.19</v>
       </c>
       <c r="E96">
-        <v>0.05</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2716,16 +2716,16 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>-0.009842519685039335</v>
+        <v>0.0448343079922028</v>
       </c>
       <c r="C97">
-        <v>0.02004008016032057</v>
+        <v>-0.003887269193391754</v>
       </c>
       <c r="D97">
-        <v>2.05</v>
+        <v>0.84</v>
       </c>
       <c r="E97">
-        <v>2.15</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2733,16 +2733,16 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>-0.002904162633107537</v>
+        <v>0.01393188854489173</v>
       </c>
       <c r="C98">
-        <v>0.03489531405782655</v>
+        <v>-0.003105590062111845</v>
       </c>
       <c r="D98">
-        <v>2.14</v>
+        <v>0.97</v>
       </c>
       <c r="E98">
-        <v>2.92</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2750,16 +2750,16 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>-0.01219512195121947</v>
+        <v>0.01793444650587503</v>
       </c>
       <c r="C99">
-        <v>0.01080246913580251</v>
+        <v>-0.00856793145654822</v>
       </c>
       <c r="D99">
-        <v>2.76</v>
+        <v>0.76</v>
       </c>
       <c r="E99">
-        <v>2.46</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2767,16 +2767,16 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>-0.01076555023923446</v>
+        <v>0.0156179266636487</v>
       </c>
       <c r="C100">
-        <v>0.02321319486866221</v>
+        <v>-0.009400179051029502</v>
       </c>
       <c r="D100">
-        <v>1.52</v>
+        <v>0.74</v>
       </c>
       <c r="E100">
-        <v>1.85</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2784,16 +2784,16 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>-0.00266075388026598</v>
+        <v>0.04223250261155057</v>
       </c>
       <c r="C101">
-        <v>0.01926127351008384</v>
+        <v>-0.02744647219428076</v>
       </c>
       <c r="D101">
-        <v>1.94</v>
+        <v>1.23</v>
       </c>
       <c r="E101">
-        <v>2.13</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2801,16 +2801,16 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.01326815642458097</v>
+        <v>0.005327868852458999</v>
       </c>
       <c r="C102">
-        <v>0.1245669291338583</v>
+        <v>0.01284175642087818</v>
       </c>
       <c r="D102">
-        <v>1.02</v>
+        <v>0.99</v>
       </c>
       <c r="E102">
-        <v>0.79</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2818,16 +2818,16 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>-0.01363271852445876</v>
+        <v>0.002793296089385482</v>
       </c>
       <c r="C103">
-        <v>0.02036659877800409</v>
+        <v>0.0056338028169013</v>
       </c>
       <c r="D103">
-        <v>1.93</v>
+        <v>1.2</v>
       </c>
       <c r="E103">
-        <v>1.99</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2835,16 +2835,16 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.0056338028169013</v>
+        <v>0.001447178002894325</v>
       </c>
       <c r="C104">
-        <v>0.02593659942363107</v>
+        <v>-0.002890173410404563</v>
       </c>
       <c r="D104">
-        <v>1.49</v>
+        <v>0.98</v>
       </c>
       <c r="E104">
-        <v>1.66</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2852,16 +2852,16 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>-0.004279600570613318</v>
+        <v>0.01262916188289316</v>
       </c>
       <c r="C105">
-        <v>0.01005747126436786</v>
+        <v>-0.007527372262773805</v>
       </c>
       <c r="D105">
-        <v>3.08</v>
+        <v>0.76</v>
       </c>
       <c r="E105">
-        <v>1.27</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2869,16 +2869,16 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.001133529811834229</v>
+        <v>-0.002860957467098939</v>
       </c>
       <c r="C106">
-        <v>0.02757821552723054</v>
+        <v>-0.009699505515405164</v>
       </c>
       <c r="D106">
-        <v>1.87</v>
+        <v>0.92</v>
       </c>
       <c r="E106">
-        <v>2.7</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2886,16 +2886,16 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>-0.007141514752865973</v>
+        <v>0.0258084577114427</v>
       </c>
       <c r="C107">
-        <v>0.01691693594373697</v>
+        <v>-0.0135052179251073</v>
       </c>
       <c r="D107">
-        <v>1.23</v>
+        <v>0.75</v>
       </c>
       <c r="E107">
-        <v>1.25</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2903,16 +2903,16 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.003668602873738768</v>
+        <v>0.007531380753138059</v>
       </c>
       <c r="C108">
-        <v>0.03418803418803412</v>
+        <v>0.005029337803855853</v>
       </c>
       <c r="D108">
-        <v>1.38</v>
+        <v>0.9</v>
       </c>
       <c r="E108">
-        <v>1.85</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2920,16 +2920,16 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>-0.02896218825422359</v>
+        <v>-0.02622445044350176</v>
       </c>
       <c r="C109">
-        <v>0.06134453781512606</v>
+        <v>0.006230529595015581</v>
       </c>
       <c r="D109">
-        <v>0.95</v>
+        <v>1.06</v>
       </c>
       <c r="E109">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2937,16 +2937,16 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.003452243958573033</v>
+        <v>0.005025125628140708</v>
       </c>
       <c r="C110">
-        <v>0.004227517294388979</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>0.77</v>
+        <v>0.82</v>
       </c>
       <c r="E110">
-        <v>0.75</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2954,16 +2954,16 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>-0.004975124378109457</v>
+        <v>0.01169064748201438</v>
       </c>
       <c r="C111">
-        <v>0.00751879699248121</v>
+        <v>-0.01069042316258358</v>
       </c>
       <c r="D111">
-        <v>2.39</v>
+        <v>0.96</v>
       </c>
       <c r="E111">
-        <v>1.74</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2971,16 +2971,16 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>-0.001766784452296863</v>
+        <v>-0.01129156999226597</v>
       </c>
       <c r="C112">
-        <v>0.02075812274368232</v>
+        <v>-0.01397326852976908</v>
       </c>
       <c r="D112">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="E112">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2988,16 +2988,16 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.0500691138074028</v>
+        <v>-0.01612337889940423</v>
       </c>
       <c r="C113">
-        <v>-0.007959589774988594</v>
+        <v>0.02015113350125946</v>
       </c>
       <c r="D113">
-        <v>0.45</v>
+        <v>1.01</v>
       </c>
       <c r="E113">
-        <v>0.5</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3005,16 +3005,16 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.0372013651877133</v>
+        <v>-0.05585023400936046</v>
       </c>
       <c r="C114">
-        <v>0.1022424933485367</v>
+        <v>0.05013280212483393</v>
       </c>
       <c r="D114">
-        <v>0.18</v>
+        <v>1.27</v>
       </c>
       <c r="E114">
-        <v>0.09</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3022,16 +3022,16 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>-0.009345794392523372</v>
+        <v>0.01167315175097277</v>
       </c>
       <c r="C115">
-        <v>0.01897533206831121</v>
+        <v>-0.01717557251908398</v>
       </c>
       <c r="D115">
-        <v>2.2</v>
+        <v>1.06</v>
       </c>
       <c r="E115">
-        <v>2.62</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3039,16 +3039,16 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.02679938744257277</v>
+        <v>-0.01343283582089549</v>
       </c>
       <c r="C116">
-        <v>0.01307692307692313</v>
+        <v>0.01662887377173097</v>
       </c>
       <c r="D116">
-        <v>0.71</v>
+        <v>0.93</v>
       </c>
       <c r="E116">
-        <v>0.89</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3056,16 +3056,16 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>-0.01408450704225351</v>
+        <v>-0.02291666666666674</v>
       </c>
       <c r="C117">
-        <v>0.01848049281314164</v>
+        <v>-0.008247422680412463</v>
       </c>
       <c r="D117">
-        <v>2.23</v>
+        <v>1.05</v>
       </c>
       <c r="E117">
-        <v>2.18</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3073,16 +3073,16 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>-0.01764705882352933</v>
+        <v>0.03343465045592701</v>
       </c>
       <c r="C118">
-        <v>0.03333333333333329</v>
+        <v>-0.01497005988023956</v>
       </c>
       <c r="D118">
-        <v>1.67</v>
+        <v>0.46</v>
       </c>
       <c r="E118">
-        <v>2.33</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3090,16 +3090,16 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.004516129032258181</v>
+        <v>0.01004411902750414</v>
       </c>
       <c r="C119">
-        <v>-0.0168661588683351</v>
+        <v>-0.01241430424309788</v>
       </c>
       <c r="D119">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="E119">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3107,16 +3107,16 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>-0.008177570093457952</v>
+        <v>0</v>
       </c>
       <c r="C120">
-        <v>0.03237410071942449</v>
+        <v>-0.0142857142857143</v>
       </c>
       <c r="D120">
-        <v>1.67</v>
+        <v>0.83</v>
       </c>
       <c r="E120">
-        <v>1.46</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3124,16 +3124,16 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>-0.00097252613663995</v>
+        <v>-0.009905774341628395</v>
       </c>
       <c r="C121">
-        <v>0.02183622828784113</v>
+        <v>0.004367871875758234</v>
       </c>
       <c r="D121">
-        <v>1.81</v>
+        <v>0.74</v>
       </c>
       <c r="E121">
-        <v>2.66</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3141,16 +3141,16 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>-0.01058201058201068</v>
+        <v>0.01161890007745934</v>
       </c>
       <c r="C122">
-        <v>0.02792862684251373</v>
+        <v>-0.005405405405405453</v>
       </c>
       <c r="D122">
-        <v>1.96</v>
+        <v>0.73</v>
       </c>
       <c r="E122">
-        <v>2.71</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3158,16 +3158,16 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.001088139281828075</v>
+        <v>-0.004942339373970289</v>
       </c>
       <c r="C123">
-        <v>0.004934210526315733</v>
+        <v>-0.005470459518599567</v>
       </c>
       <c r="D123">
-        <v>1.26</v>
+        <v>0.89</v>
       </c>
       <c r="E123">
-        <v>1.58</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3175,16 +3175,16 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.002563007261853816</v>
+        <v>-0.01843910806174945</v>
       </c>
       <c r="C124">
-        <v>0.0156182212581345</v>
+        <v>0.0004286326618087826</v>
       </c>
       <c r="D124">
-        <v>1.09</v>
+        <v>1.03</v>
       </c>
       <c r="E124">
-        <v>0.89</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3192,16 +3192,16 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>-0.01168679392286726</v>
+        <v>0.01653892698668815</v>
       </c>
       <c r="C125">
-        <v>0.02318145483613121</v>
+        <v>-0.007968127490039672</v>
       </c>
       <c r="D125">
-        <v>0.75</v>
+        <v>1.11</v>
       </c>
       <c r="E125">
-        <v>0.79</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3209,16 +3209,16 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.005343783398646147</v>
+        <v>0.005141388174807116</v>
       </c>
       <c r="C126">
-        <v>0.005360972122944866</v>
+        <v>-0.0284191829484903</v>
       </c>
       <c r="D126">
-        <v>1.63</v>
+        <v>0.86</v>
       </c>
       <c r="E126">
-        <v>1.81</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3226,16 +3226,16 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>-0.003409090909090967</v>
+        <v>0.01138828633405635</v>
       </c>
       <c r="C127">
-        <v>0.01979045401629802</v>
+        <v>-0.01703033528472593</v>
       </c>
       <c r="D127">
-        <v>1.1</v>
+        <v>1.34</v>
       </c>
       <c r="E127">
-        <v>1.37</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3243,16 +3243,16 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.002105263157894739</v>
+        <v>0.01444866920152101</v>
       </c>
       <c r="C128">
-        <v>-0.0005257623554152943</v>
+        <v>-0.0007604562737641748</v>
       </c>
       <c r="D128">
-        <v>0.88</v>
+        <v>0.59</v>
       </c>
       <c r="E128">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3260,16 +3260,16 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.006065200909780142</v>
+        <v>0.05342545737641097</v>
       </c>
       <c r="C129">
-        <v>0.02482544608223431</v>
+        <v>0.01413920143383449</v>
       </c>
       <c r="D129">
-        <v>1.82</v>
+        <v>0.54</v>
       </c>
       <c r="E129">
-        <v>2.03</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3277,16 +3277,16 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>-0.03262438648830709</v>
+        <v>0.01160136286201019</v>
       </c>
       <c r="C130">
-        <v>0.006966618287372921</v>
+        <v>-0.02140841307215728</v>
       </c>
       <c r="D130">
-        <v>1.79</v>
+        <v>1.59</v>
       </c>
       <c r="E130">
-        <v>1.51</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3294,16 +3294,16 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>-0.003161421223988984</v>
+        <v>0.06142322097378266</v>
       </c>
       <c r="C131">
-        <v>0.03202454186888283</v>
+        <v>-0.0324909747292419</v>
       </c>
       <c r="D131">
-        <v>1.16</v>
+        <v>1.06</v>
       </c>
       <c r="E131">
-        <v>1.36</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3311,16 +3311,16 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>-0.006396588486140613</v>
+        <v>0.01977671451355657</v>
       </c>
       <c r="C132">
-        <v>-0.00563777307963351</v>
+        <v>0.02017572404816135</v>
       </c>
       <c r="D132">
-        <v>2.13</v>
+        <v>0.49</v>
       </c>
       <c r="E132">
-        <v>1.73</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3328,16 +3328,16 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>-0.005676126878130149</v>
+        <v>-0.00310366232153929</v>
       </c>
       <c r="C133">
-        <v>0.03294036061026355</v>
+        <v>-0.01046153846153846</v>
       </c>
       <c r="D133">
-        <v>2.04</v>
+        <v>1.06</v>
       </c>
       <c r="E133">
-        <v>2.61</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3345,16 +3345,16 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.0115062761506277</v>
+        <v>0</v>
       </c>
       <c r="C134">
-        <v>0.0235546038543897</v>
+        <v>-0.01935483870967744</v>
       </c>
       <c r="D134">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="E134">
-        <v>1.31</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3362,16 +3362,16 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>-0.0132370637785799</v>
+        <v>0.01633764465622863</v>
       </c>
       <c r="C135">
-        <v>0.01972872996300868</v>
+        <v>-0.02001334222815212</v>
       </c>
       <c r="D135">
-        <v>1.69</v>
+        <v>1.2</v>
       </c>
       <c r="E135">
-        <v>2.53</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3379,16 +3379,16 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>-0.00940438871473348</v>
+        <v>0.01801992792028833</v>
       </c>
       <c r="C136">
-        <v>0.03883495145631072</v>
+        <v>-0.01903973509933784</v>
       </c>
       <c r="D136">
-        <v>1.09</v>
+        <v>1.54</v>
       </c>
       <c r="E136">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3396,16 +3396,16 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.008569545154910979</v>
+        <v>0.01178069777979156</v>
       </c>
       <c r="C137">
-        <v>0.02014775016789793</v>
+        <v>-0.01163831692032228</v>
       </c>
       <c r="D137">
-        <v>1.55</v>
+        <v>0.88</v>
       </c>
       <c r="E137">
-        <v>1.54</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3413,16 +3413,16 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.01563803169307746</v>
+        <v>0.01592718998862328</v>
       </c>
       <c r="C138">
-        <v>0.004658056320135464</v>
+        <v>0.01856148491879352</v>
       </c>
       <c r="D138">
-        <v>0.98</v>
+        <v>0.73</v>
       </c>
       <c r="E138">
-        <v>0.88</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3430,16 +3430,16 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.003108348134991146</v>
+        <v>0.004150197628458655</v>
       </c>
       <c r="C139">
-        <v>0.01437556154537283</v>
+        <v>-0.01286549707602336</v>
       </c>
       <c r="D139">
-        <v>1.84</v>
+        <v>0.99</v>
       </c>
       <c r="E139">
-        <v>1.87</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3447,16 +3447,16 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.001150747986191013</v>
+        <v>0.008928571428571503</v>
       </c>
       <c r="C140">
-        <v>0.01635514018691593</v>
+        <v>0.004470938897168443</v>
       </c>
       <c r="D140">
-        <v>1.56</v>
+        <v>0.77</v>
       </c>
       <c r="E140">
-        <v>1.9</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3464,16 +3464,16 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>-0.02046179838558288</v>
+        <v>-0.01271970397779827</v>
       </c>
       <c r="C141">
-        <v>0.03016241299303956</v>
+        <v>-0.06655216831258061</v>
       </c>
       <c r="D141">
-        <v>1.51</v>
+        <v>0.99</v>
       </c>
       <c r="E141">
-        <v>1.62</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3481,16 +3481,16 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>-0.007309941520467811</v>
+        <v>-0.04147250698974842</v>
       </c>
       <c r="C142">
-        <v>0.02698650674662664</v>
+        <v>-0.02718622564567293</v>
       </c>
       <c r="D142">
-        <v>1.14</v>
+        <v>1.7</v>
       </c>
       <c r="E142">
-        <v>1.13</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3498,16 +3498,16 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.01592920353982303</v>
+        <v>-0.01482059282371305</v>
       </c>
       <c r="C143">
-        <v>-0.002881205673758843</v>
+        <v>-0.01391035548686241</v>
       </c>
       <c r="D143">
-        <v>1.57</v>
+        <v>0.64</v>
       </c>
       <c r="E143">
-        <v>1.06</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3515,16 +3515,16 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>-0.01951951951951966</v>
+        <v>0.01417434443656982</v>
       </c>
       <c r="C144">
-        <v>0.02313030069390904</v>
+        <v>-0.02294853963838659</v>
       </c>
       <c r="D144">
-        <v>1.28</v>
+        <v>0.98</v>
       </c>
       <c r="E144">
-        <v>1.45</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3532,16 +3532,16 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>-0.004181184668989551</v>
+        <v>0.0359911406423034</v>
       </c>
       <c r="C145">
-        <v>0.04908424908424905</v>
+        <v>-0.02212628170534265</v>
       </c>
       <c r="D145">
-        <v>2.07</v>
+        <v>1.24</v>
       </c>
       <c r="E145">
-        <v>2.07</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3549,16 +3549,16 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.007940709370037005</v>
+        <v>0.01175811870100779</v>
       </c>
       <c r="C146">
-        <v>0.01239224137931029</v>
+        <v>0</v>
       </c>
       <c r="D146">
-        <v>1.21</v>
+        <v>0.97</v>
       </c>
       <c r="E146">
-        <v>1.51</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3566,16 +3566,16 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.00559597090095132</v>
+        <v>-0.0005313496280552019</v>
       </c>
       <c r="C147">
-        <v>0.02345537757437067</v>
+        <v>-0.01547338054025706</v>
       </c>
       <c r="D147">
-        <v>1.74</v>
+        <v>1.5</v>
       </c>
       <c r="E147">
-        <v>2.78</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3583,16 +3583,16 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>-0.0376470588235294</v>
+        <v>0.0151209677419355</v>
       </c>
       <c r="C148">
-        <v>0.05083333333333329</v>
+        <v>-0.01783060921248139</v>
       </c>
       <c r="D148">
-        <v>0.7</v>
+        <v>0.61</v>
       </c>
       <c r="E148">
-        <v>0.44</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3600,16 +3600,16 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.004960835509138415</v>
+        <v>0.006869479882237376</v>
       </c>
       <c r="C149">
-        <v>0.02548283261802568</v>
+        <v>-0.01258470474346561</v>
       </c>
       <c r="D149">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
       <c r="E149">
-        <v>0.67</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3617,16 +3617,16 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>-0.01160541586073507</v>
+        <v>0.005277044854881272</v>
       </c>
       <c r="C150">
-        <v>0.04853387259858442</v>
+        <v>0.00396301188903567</v>
       </c>
       <c r="D150">
-        <v>1.7</v>
+        <v>0.86</v>
       </c>
       <c r="E150">
-        <v>1.69</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3634,16 +3634,16 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>-0.01152737752161372</v>
+        <v>0.003115264797507878</v>
       </c>
       <c r="C151">
-        <v>-0.001932367149758482</v>
+        <v>-0.02409638554216874</v>
       </c>
       <c r="D151">
-        <v>1.97</v>
+        <v>0.85</v>
       </c>
       <c r="E151">
-        <v>2.02</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3651,16 +3651,16 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>-0.01290322580645162</v>
+        <v>0.01060070671378093</v>
       </c>
       <c r="C152">
-        <v>0.01308900523560211</v>
+        <v>-0.02072538860103629</v>
       </c>
       <c r="D152">
-        <v>2.2</v>
+        <v>1.16</v>
       </c>
       <c r="E152">
-        <v>2.13</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3668,16 +3668,16 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.01497005988023953</v>
+        <v>-0.004006009013520257</v>
       </c>
       <c r="C153">
-        <v>0.02439024390243888</v>
+        <v>-0.008420009905894041</v>
       </c>
       <c r="D153">
-        <v>1.18</v>
+        <v>0.98</v>
       </c>
       <c r="E153">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3685,16 +3685,16 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>-0.008591065292096228</v>
+        <v>0.01554404145077718</v>
       </c>
       <c r="C154">
-        <v>0.01933216168717049</v>
+        <v>-0.01692047377326565</v>
       </c>
       <c r="D154">
-        <v>1.42</v>
+        <v>1.61</v>
       </c>
       <c r="E154">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3702,16 +3702,16 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>-0.03865859338612018</v>
+        <v>-0.005050505050505067</v>
       </c>
       <c r="C155">
-        <v>-0.06859361518550473</v>
+        <v>-0.008490930142802056</v>
       </c>
       <c r="D155">
-        <v>3.3</v>
+        <v>0.97</v>
       </c>
       <c r="E155">
-        <v>0.41</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3719,16 +3719,16 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.08318890814558054</v>
+        <v>0.02719465648854959</v>
       </c>
       <c r="C156">
-        <v>0.01940035273368597</v>
+        <v>-0.008974964572508327</v>
       </c>
       <c r="D156">
-        <v>0.71</v>
+        <v>0.79</v>
       </c>
       <c r="E156">
-        <v>0.5600000000000001</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3736,16 +3736,16 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0</v>
+        <v>0.0006070908207867228</v>
       </c>
       <c r="C157">
-        <v>0.02184466019417478</v>
+        <v>-0.04826299836791783</v>
       </c>
       <c r="D157">
-        <v>1.61</v>
+        <v>1.46</v>
       </c>
       <c r="E157">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3753,16 +3753,16 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>-0.00683630839346759</v>
+        <v>0.004705882352941219</v>
       </c>
       <c r="C158">
-        <v>0.02217036172695448</v>
+        <v>-0.03719275549805945</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="E158">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3770,16 +3770,16 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>-0.005563282336578586</v>
+        <v>0.01328903654485053</v>
       </c>
       <c r="C159">
-        <v>0.008430913348946249</v>
+        <v>-0.009256198347107406</v>
       </c>
       <c r="D159">
-        <v>2.77</v>
+        <v>0.92</v>
       </c>
       <c r="E159">
-        <v>2.77</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3787,16 +3787,16 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>-0.01503299926668307</v>
+        <v>-0.009863013698630116</v>
       </c>
       <c r="C160">
-        <v>0.02473320778405524</v>
+        <v>-0.02152852529601724</v>
       </c>
       <c r="D160">
-        <v>1.46</v>
+        <v>1</v>
       </c>
       <c r="E160">
-        <v>1.75</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3804,16 +3804,16 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>-0.01757689893283107</v>
+        <v>-0.001486325802615935</v>
       </c>
       <c r="C161">
-        <v>0.01747696218620915</v>
+        <v>-0.02461627570228789</v>
       </c>
       <c r="D161">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="E161">
-        <v>0.85</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3821,16 +3821,16 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>-0.01937122896157498</v>
+        <v>-0.007874015748031503</v>
       </c>
       <c r="C162">
-        <v>0.009643201542912301</v>
+        <v>-0.02072538860103629</v>
       </c>
       <c r="D162">
-        <v>1.89</v>
+        <v>0.64</v>
       </c>
       <c r="E162">
-        <v>2.29</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3838,16 +3838,16 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>-0.001069518716577571</v>
+        <v>-0.004502251125562841</v>
       </c>
       <c r="C163">
-        <v>0.004825737265415613</v>
+        <v>-0.04486873508353236</v>
       </c>
       <c r="D163">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="E163">
-        <v>2.54</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3855,16 +3855,16 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>-0.003406187908032867</v>
+        <v>-0.01138500104449559</v>
       </c>
       <c r="C164">
-        <v>0.01539355213476627</v>
+        <v>0.007112970711297071</v>
       </c>
       <c r="D164">
-        <v>1.49</v>
+        <v>0.76</v>
       </c>
       <c r="E164">
-        <v>1.09</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3872,16 +3872,16 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>-0.030631479736098</v>
+        <v>0.004110996916752287</v>
       </c>
       <c r="C165">
-        <v>0.02239532619279468</v>
+        <v>-0.01606425702811235</v>
       </c>
       <c r="D165">
-        <v>1.51</v>
+        <v>1.41</v>
       </c>
       <c r="E165">
-        <v>1.99</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3889,16 +3889,16 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>-0.005431440869030566</v>
+        <v>-0.00385277481760794</v>
       </c>
       <c r="C166">
-        <v>0.01308547097310206</v>
+        <v>-0.01040527956597435</v>
       </c>
       <c r="D166">
-        <v>1.09</v>
+        <v>1.26</v>
       </c>
       <c r="E166">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3906,16 +3906,16 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.05650857719475286</v>
+        <v>0.01820187534473247</v>
       </c>
       <c r="C167">
-        <v>0.009174311926605484</v>
+        <v>-0.02730192719486078</v>
       </c>
       <c r="D167">
-        <v>1.61</v>
+        <v>0.93</v>
       </c>
       <c r="E167">
-        <v>1.82</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3923,16 +3923,16 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.01954041589125325</v>
+        <v>0.01020408163265302</v>
       </c>
       <c r="C168">
-        <v>0.003282674772036563</v>
+        <v>-0.006060606060606111</v>
       </c>
       <c r="D168">
-        <v>1.01</v>
+        <v>0.24</v>
       </c>
       <c r="E168">
-        <v>1.16</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3940,16 +3940,16 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>-0.004250797024442057</v>
+        <v>0.01251819505094614</v>
       </c>
       <c r="C169">
-        <v>0.0151106314085267</v>
+        <v>-0.007175472928897721</v>
       </c>
       <c r="D169">
-        <v>2</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E169">
-        <v>1.63</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3957,16 +3957,16 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>-0.006075334143377891</v>
+        <v>0.009940357852882713</v>
       </c>
       <c r="C170">
-        <v>0.03316645807259073</v>
+        <v>-0.005928853754940716</v>
       </c>
       <c r="D170">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="E170">
-        <v>1.11</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3974,16 +3974,16 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.001980198019801938</v>
+        <v>0.01919385796545099</v>
       </c>
       <c r="C171">
-        <v>0.04517453798767962</v>
+        <v>-0.024390243902439</v>
       </c>
       <c r="D171">
-        <v>0.87</v>
+        <v>1.47</v>
       </c>
       <c r="E171">
-        <v>0.78</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3991,16 +3991,16 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>-0.008001143020431364</v>
+        <v>0.01082677165354325</v>
       </c>
       <c r="C172">
-        <v>0.0290237467018469</v>
+        <v>-0.01167315175097269</v>
       </c>
       <c r="D172">
-        <v>2.29</v>
+        <v>1.19</v>
       </c>
       <c r="E172">
-        <v>2.4</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4008,16 +4008,16 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>-0.007692307692307699</v>
+        <v>0.004032258064516081</v>
       </c>
       <c r="C173">
-        <v>0.03578528827037777</v>
+        <v>-0.03617571059431534</v>
       </c>
       <c r="D173">
-        <v>1.29</v>
+        <v>1.07</v>
       </c>
       <c r="E173">
-        <v>1.56</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4025,16 +4025,16 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.003623188405797185</v>
+        <v>0.003133719682335397</v>
       </c>
       <c r="C174">
-        <v>0.06106870229007622</v>
+        <v>-0.01624746792707629</v>
       </c>
       <c r="D174">
-        <v>0.88</v>
+        <v>1.23</v>
       </c>
       <c r="E174">
-        <v>0.62</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4042,16 +4042,16 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>-0.003827751196172167</v>
+        <v>0.001349527665317178</v>
       </c>
       <c r="C175">
-        <v>0.0305118110236221</v>
+        <v>-0.03394255874673636</v>
       </c>
       <c r="D175">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="E175">
-        <v>1.77</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4059,16 +4059,16 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>-0.001251564455569628</v>
+        <v>0.004119464469618961</v>
       </c>
       <c r="C176">
-        <v>0.0203821656050956</v>
+        <v>-0.01327614379084966</v>
       </c>
       <c r="D176">
-        <v>1.37</v>
+        <v>1.09</v>
       </c>
       <c r="E176">
-        <v>1.07</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4076,16 +4076,16 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.009793207800941442</v>
+        <v>-0.003859649122807073</v>
       </c>
       <c r="C177">
-        <v>0.01209266802444</v>
+        <v>-0.01724137931034472</v>
       </c>
       <c r="D177">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="E177">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4093,16 +4093,16 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.06215846994535517</v>
+        <v>0.08037004914715236</v>
       </c>
       <c r="C178">
-        <v>-0.001362397820163527</v>
+        <v>0.004625614339404456</v>
       </c>
       <c r="D178">
-        <v>1.08</v>
+        <v>0.62</v>
       </c>
       <c r="E178">
-        <v>1.49</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4110,16 +4110,16 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.02809446254071664</v>
+        <v>0.08585445625511036</v>
       </c>
       <c r="C179">
-        <v>0.03799071338117341</v>
+        <v>-0.01668653158522043</v>
       </c>
       <c r="D179">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="E179">
-        <v>1.54</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4127,16 +4127,16 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.009598902982516368</v>
+        <v>0.006567745074191228</v>
       </c>
       <c r="C180">
-        <v>0.005181347150259006</v>
+        <v>-0.01317365269461071</v>
       </c>
       <c r="D180">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="E180">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4144,16 +4144,16 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.02639383155397389</v>
+        <v>0.01237113402061857</v>
       </c>
       <c r="C181">
-        <v>0.05258245177349099</v>
+        <v>0</v>
       </c>
       <c r="D181">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="E181">
-        <v>0.98</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4161,16 +4161,16 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.01191489361702129</v>
+        <v>-0.01799016163035841</v>
       </c>
       <c r="C182">
-        <v>0.03661726242371407</v>
+        <v>-0.0146429064787954</v>
       </c>
       <c r="D182">
-        <v>1.58</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E182">
-        <v>0.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4178,16 +4178,16 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.02275478092471542</v>
+        <v>0.1375394321766561</v>
       </c>
       <c r="C183">
-        <v>0.01176182308257759</v>
+        <v>-0.05999999999999992</v>
       </c>
       <c r="D183">
-        <v>0.48</v>
+        <v>0.63</v>
       </c>
       <c r="E183">
-        <v>0.54</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4195,16 +4195,16 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.002016129032258066</v>
+        <v>0.001130582249858631</v>
       </c>
       <c r="C184">
-        <v>0.01229508196721313</v>
+        <v>0.006806579693703833</v>
       </c>
       <c r="D184">
-        <v>1.59</v>
+        <v>1.2</v>
       </c>
       <c r="E184">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4212,16 +4212,16 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>-0.008630136986301332</v>
+        <v>0.01210777626193708</v>
       </c>
       <c r="C185">
-        <v>0.03407323625053014</v>
+        <v>-0.001695202576707958</v>
       </c>
       <c r="D185">
-        <v>3.03</v>
+        <v>1.03</v>
       </c>
       <c r="E185">
-        <v>3.69</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4229,16 +4229,16 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>-0.01010701545778829</v>
+        <v>0.01787678767876789</v>
       </c>
       <c r="C186">
-        <v>-0.007683215130023582</v>
+        <v>0.03101878201479801</v>
       </c>
       <c r="D186">
-        <v>1.86</v>
+        <v>0.6</v>
       </c>
       <c r="E186">
-        <v>1.77</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4246,16 +4246,16 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.004566210045662112</v>
+        <v>0.04036036036036034</v>
       </c>
       <c r="C187">
-        <v>0.002850627137970435</v>
+        <v>0.01025265470523614</v>
       </c>
       <c r="D187">
-        <v>1.72</v>
+        <v>0.49</v>
       </c>
       <c r="E187">
-        <v>2.62</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4263,16 +4263,16 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>-0.005044560282495316</v>
+        <v>0.05761316872427989</v>
       </c>
       <c r="C188">
-        <v>0.03483535528596187</v>
+        <v>-0.006793478260869571</v>
       </c>
       <c r="D188">
-        <v>0.8</v>
+        <v>0.59</v>
       </c>
       <c r="E188">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4280,16 +4280,16 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>-0.0203583061889251</v>
+        <v>0.02083333333333343</v>
       </c>
       <c r="C189">
-        <v>-0.01546666666666674</v>
+        <v>-0.003561253561253564</v>
       </c>
       <c r="D189">
-        <v>3.31</v>
+        <v>1.08</v>
       </c>
       <c r="E189">
-        <v>3.49</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4297,16 +4297,16 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>-0.0217391304347825</v>
+        <v>0.01751459549624679</v>
       </c>
       <c r="C190">
-        <v>0.01520912547528521</v>
+        <v>-0.02871072589382448</v>
       </c>
       <c r="D190">
-        <v>1.63</v>
+        <v>0.84</v>
       </c>
       <c r="E190">
-        <v>2.16</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4314,16 +4314,16 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>-0.0220779220779221</v>
+        <v>-0.009966777408637884</v>
       </c>
       <c r="C191">
-        <v>0.02263648468708391</v>
+        <v>-0.03836930455635477</v>
       </c>
       <c r="D191">
-        <v>1.87</v>
+        <v>0.95</v>
       </c>
       <c r="E191">
-        <v>1.55</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4331,16 +4331,16 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.004590395480225875</v>
+        <v>0.0169491525423729</v>
       </c>
       <c r="C192">
-        <v>0.01353276353276362</v>
+        <v>0</v>
       </c>
       <c r="D192">
-        <v>1.13</v>
+        <v>0.62</v>
       </c>
       <c r="E192">
-        <v>1.16</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4348,16 +4348,16 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.008611410118406987</v>
+        <v>-0.007619047619047573</v>
       </c>
       <c r="C193">
-        <v>-0.0135135135135135</v>
+        <v>-0.05035971223021578</v>
       </c>
       <c r="D193">
-        <v>2.32</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E193">
-        <v>2.44</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4365,16 +4365,16 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.002351097178683301</v>
+        <v>-0.004928315412186459</v>
       </c>
       <c r="C194">
-        <v>0.02993527508090608</v>
+        <v>-0.01414677276746246</v>
       </c>
       <c r="D194">
-        <v>2.25</v>
+        <v>0.87</v>
       </c>
       <c r="E194">
-        <v>1.42</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4382,16 +4382,16 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0</v>
+        <v>0.008214901831923116</v>
       </c>
       <c r="C195">
-        <v>0</v>
+        <v>-0.02240089603584128</v>
       </c>
       <c r="D195">
-        <v>1.05</v>
+        <v>1.54</v>
       </c>
       <c r="E195">
-        <v>1.32</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4399,16 +4399,16 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0</v>
+        <v>-0.001113999257333783</v>
       </c>
       <c r="C196">
-        <v>0.02007299270072987</v>
+        <v>-0.01608187134502922</v>
       </c>
       <c r="D196">
-        <v>0.68</v>
+        <v>0.95</v>
       </c>
       <c r="E196">
-        <v>0.58</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4416,16 +4416,16 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>-0.02569593147751608</v>
+        <v>0.01338432122370935</v>
       </c>
       <c r="C197">
-        <v>0.03137428192664602</v>
+        <v>-0.00950570342205324</v>
       </c>
       <c r="D197">
-        <v>1.52</v>
+        <v>0.74</v>
       </c>
       <c r="E197">
-        <v>1.63</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4433,16 +4433,16 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.005164338043956977</v>
+        <v>0.04853351955307271</v>
       </c>
       <c r="C198">
-        <v>-0.009870376977048458</v>
+        <v>0.01760057471264374</v>
       </c>
       <c r="D198">
-        <v>1.25</v>
+        <v>0.15</v>
       </c>
       <c r="E198">
-        <v>1.72</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4450,16 +4450,16 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>-0.01027275947573511</v>
+        <v>0.010230179028133</v>
       </c>
       <c r="C199">
-        <v>0.04668395702111896</v>
+        <v>-0.005154639175257736</v>
       </c>
       <c r="D199">
-        <v>1.33</v>
+        <v>0.98</v>
       </c>
       <c r="E199">
-        <v>1.16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4467,16 +4467,16 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>-0.01470588235294109</v>
+        <v>0.02008149010477298</v>
       </c>
       <c r="C200">
-        <v>0.04198473282442749</v>
+        <v>-0.009221902017291074</v>
       </c>
       <c r="D200">
-        <v>1.79</v>
+        <v>1.23</v>
       </c>
       <c r="E200">
-        <v>1.37</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4484,16 +4484,16 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.00139567341242134</v>
+        <v>-0.003192338387869095</v>
       </c>
       <c r="C201">
-        <v>0.02466928852341801</v>
+        <v>-0.02865995352439955</v>
       </c>
       <c r="D201">
-        <v>1.48</v>
+        <v>1.04</v>
       </c>
       <c r="E201">
-        <v>1.3</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4501,16 +4501,16 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.001280409731113958</v>
+        <v>0.02670623145400579</v>
       </c>
       <c r="C202">
-        <v>0.01034928848641657</v>
+        <v>-0.03147353361945623</v>
       </c>
       <c r="D202">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="E202">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4518,16 +4518,16 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>-0.003185635679119513</v>
+        <v>0.01008645533141211</v>
       </c>
       <c r="C203">
-        <v>0.0316890881913303</v>
+        <v>-0.02111189303307532</v>
       </c>
       <c r="D203">
-        <v>1.96</v>
+        <v>0.79</v>
       </c>
       <c r="E203">
-        <v>2.19</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4535,16 +4535,16 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>-0.02107409925220947</v>
+        <v>-0.007246376811594049</v>
       </c>
       <c r="C204">
-        <v>0.04323175053153788</v>
+        <v>-0.008076009501187602</v>
       </c>
       <c r="D204">
-        <v>1.5</v>
+        <v>1.04</v>
       </c>
       <c r="E204">
-        <v>1.84</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4552,16 +4552,16 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>-0.01286764705882354</v>
+        <v>0.02946593001841623</v>
       </c>
       <c r="C205">
-        <v>0.03761165961448053</v>
+        <v>-0.01983173076923072</v>
       </c>
       <c r="D205">
-        <v>1.84</v>
+        <v>0.85</v>
       </c>
       <c r="E205">
-        <v>1.98</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4569,16 +4569,16 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>-0.001196172248803829</v>
+        <v>0.01098901098901096</v>
       </c>
       <c r="C206">
-        <v>-0.03281519861830752</v>
+        <v>-0.01566757493187997</v>
       </c>
       <c r="D206">
-        <v>2.16</v>
+        <v>0.93</v>
       </c>
       <c r="E206">
-        <v>1.99</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4586,16 +4586,16 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>-0.01000000000000003</v>
+        <v>0.01692157500813531</v>
       </c>
       <c r="C207">
-        <v>0.01975476839237068</v>
+        <v>-0.006344558321132283</v>
       </c>
       <c r="D207">
-        <v>1.72</v>
+        <v>0.6</v>
       </c>
       <c r="E207">
-        <v>1.64</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4603,16 +4603,16 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>-0.009904153354632562</v>
+        <v>0.01754186125982461</v>
       </c>
       <c r="C208">
-        <v>0.0301184990125082</v>
+        <v>-0.01948341126697842</v>
       </c>
       <c r="D208">
-        <v>2.05</v>
+        <v>0.75</v>
       </c>
       <c r="E208">
-        <v>2.09</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4620,16 +4620,16 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>-0.002546219417690722</v>
+        <v>-0.01196808510638296</v>
       </c>
       <c r="C209">
-        <v>0.007676048503726874</v>
+        <v>-0.02776880852437841</v>
       </c>
       <c r="D209">
-        <v>1.52</v>
+        <v>0.87</v>
       </c>
       <c r="E209">
-        <v>1.87</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4637,16 +4637,16 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.001435406698564534</v>
+        <v>-0.009186351706036827</v>
       </c>
       <c r="C210">
-        <v>0.02893309222423155</v>
+        <v>-0.01359223300970868</v>
       </c>
       <c r="D210">
-        <v>1.71</v>
+        <v>0.91</v>
       </c>
       <c r="E210">
-        <v>1.99</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4654,16 +4654,16 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>-0.04321363359707849</v>
+        <v>0.02738904193449637</v>
       </c>
       <c r="C211">
-        <v>0.06701366297983086</v>
+        <v>-0.01072071745410147</v>
       </c>
       <c r="D211">
-        <v>1.68</v>
+        <v>0.79</v>
       </c>
       <c r="E211">
-        <v>0.82</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4671,16 +4671,16 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.0008530805687204957</v>
+        <v>-0.006644518272425255</v>
       </c>
       <c r="C212">
-        <v>0.004701133733008853</v>
+        <v>-0.01149425287356323</v>
       </c>
       <c r="D212">
-        <v>2.03</v>
+        <v>0.73</v>
       </c>
       <c r="E212">
-        <v>2.45</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4688,16 +4688,16 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>-0.003252032520325206</v>
+        <v>0.03881700554528646</v>
       </c>
       <c r="C213">
-        <v>0</v>
+        <v>-0.02400362318840579</v>
       </c>
       <c r="D213">
-        <v>1.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E213">
-        <v>1.37</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4705,16 +4705,16 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>-0.01820908311910884</v>
+        <v>0.03593442622950832</v>
       </c>
       <c r="C214">
-        <v>0.06469920544835407</v>
+        <v>-0.007794232268121597</v>
       </c>
       <c r="D214">
-        <v>1.24</v>
+        <v>0.76</v>
       </c>
       <c r="E214">
-        <v>1.37</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4722,16 +4722,16 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>-0.06473974856068608</v>
+        <v>-0.006483756483756527</v>
       </c>
       <c r="C215">
-        <v>-0.05545577009429726</v>
+        <v>-0.008985704560925867</v>
       </c>
       <c r="D215">
-        <v>2.1</v>
+        <v>1.04</v>
       </c>
       <c r="E215">
-        <v>0.71</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4739,16 +4739,16 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>-0.03232413748959866</v>
+        <v>0.03267536522805842</v>
       </c>
       <c r="C216">
-        <v>0.05943747882073866</v>
+        <v>-0.02534537147829869</v>
       </c>
       <c r="D216">
-        <v>1.95</v>
+        <v>1.29</v>
       </c>
       <c r="E216">
-        <v>1.68</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4756,16 +4756,16 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.02270494487501357</v>
+        <v>0.006307339449541227</v>
       </c>
       <c r="C217">
-        <v>0.04152561498533069</v>
+        <v>-0.01717342342342341</v>
       </c>
       <c r="D217">
-        <v>1.76</v>
+        <v>1.11</v>
       </c>
       <c r="E217">
-        <v>1.79</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4773,16 +4773,16 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>-0.006911805363560968</v>
+        <v>-0.01795078660750304</v>
       </c>
       <c r="C218">
-        <v>0.01629213483146075</v>
+        <v>0.002020610224287764</v>
       </c>
       <c r="D218">
-        <v>2.19</v>
+        <v>0.61</v>
       </c>
       <c r="E218">
-        <v>2.19</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4790,16 +4790,16 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>-0.001007252215954818</v>
+        <v>0.001597266074811433</v>
       </c>
       <c r="C219">
-        <v>0.01884859659905746</v>
+        <v>-0.03903893246264687</v>
       </c>
       <c r="D219">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="E219">
-        <v>2.27</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4807,16 +4807,16 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>-0.05390007361648999</v>
+        <v>-0.01744993059686696</v>
       </c>
       <c r="C220">
-        <v>0.2524279541760813</v>
+        <v>-0.01535471331389694</v>
       </c>
       <c r="D220">
-        <v>0.4</v>
+        <v>1.31</v>
       </c>
       <c r="E220">
-        <v>0.23</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4824,16 +4824,16 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>-0.003035477139062799</v>
+        <v>0.01419110690633871</v>
       </c>
       <c r="C221">
-        <v>-0.04588979223125573</v>
+        <v>0.07643418631878235</v>
       </c>
       <c r="D221">
-        <v>1.59</v>
+        <v>1.21</v>
       </c>
       <c r="E221">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4841,16 +4841,16 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>-0.04946439823566475</v>
+        <v>0.004945756222080483</v>
       </c>
       <c r="C222">
-        <v>-0.01058451816745662</v>
+        <v>-0.0308049535603716</v>
       </c>
       <c r="D222">
-        <v>1.83</v>
+        <v>1.06</v>
       </c>
       <c r="E222">
-        <v>1.05</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4858,16 +4858,16 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.03984739296312002</v>
+        <v>-0.03962798220784474</v>
       </c>
       <c r="C223">
-        <v>0.05465949820788525</v>
+        <v>0.02604381976023146</v>
       </c>
       <c r="D223">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="E223">
-        <v>0.8</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4875,16 +4875,16 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>-0.02556390977443611</v>
+        <v>0.01094605160281471</v>
       </c>
       <c r="C224">
-        <v>0.01222307104660047</v>
+        <v>-0.01675552170601677</v>
       </c>
       <c r="D224">
-        <v>1.31</v>
+        <v>1.08</v>
       </c>
       <c r="E224">
-        <v>1.91</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4892,16 +4892,16 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>-0.03729838709677425</v>
+        <v>-0.02173913043478252</v>
       </c>
       <c r="C225">
-        <v>0.04416403785488962</v>
+        <v>-0.05075593952483801</v>
       </c>
       <c r="D225">
-        <v>1.52</v>
+        <v>0.68</v>
       </c>
       <c r="E225">
-        <v>1.52</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4909,16 +4909,16 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>-0.001029695991894525</v>
+        <v>0.01571031866047122</v>
       </c>
       <c r="C226">
-        <v>0.01901309006141574</v>
+        <v>0.005393350225504961</v>
       </c>
       <c r="D226">
-        <v>1.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E226">
-        <v>1.78</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4926,16 +4926,16 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>-0.02619033003908084</v>
+        <v>0.01905717151454362</v>
       </c>
       <c r="C227">
-        <v>0.04735316682294778</v>
+        <v>-0.02746475944945736</v>
       </c>
       <c r="D227">
-        <v>1.76</v>
+        <v>1.09</v>
       </c>
       <c r="E227">
-        <v>1.99</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4943,16 +4943,16 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>-0.005322802197802183</v>
+        <v>0.03155940594059412</v>
       </c>
       <c r="C228">
-        <v>0.01804078786822376</v>
+        <v>-0.01314186248912107</v>
       </c>
       <c r="D228">
-        <v>1.64</v>
+        <v>0.7</v>
       </c>
       <c r="E228">
-        <v>2.03</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4960,16 +4960,16 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.05637467476149181</v>
+        <v>0.05727619855748838</v>
       </c>
       <c r="C229">
-        <v>-0.0170721297481861</v>
+        <v>-0.02773178807947025</v>
       </c>
       <c r="D229">
-        <v>1.12</v>
+        <v>0.9</v>
       </c>
       <c r="E229">
-        <v>1.6</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4977,16 +4977,16 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>-0.01603269412134547</v>
+        <v>0.01521164021164019</v>
       </c>
       <c r="C230">
-        <v>0.04587155963302738</v>
+        <v>-0.01436031331592694</v>
       </c>
       <c r="D230">
-        <v>1.58</v>
+        <v>0.67</v>
       </c>
       <c r="E230">
-        <v>2.63</v>
+        <v>0.92</v>
       </c>
     </row>
   </sheetData>

--- a/CyberOasisProjectReborn/scripts/market_performers/performance.xlsx
+++ b/CyberOasisProjectReborn/scripts/market_performers/performance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="234">
   <si>
     <t>24h_change</t>
   </si>
@@ -142,12 +142,6 @@
     <t>ANKR/USDT</t>
   </si>
   <si>
-    <t>WIN/USDT</t>
-  </si>
-  <si>
-    <t>COCOS/USDT</t>
-  </si>
-  <si>
     <t>MTL/USDT</t>
   </si>
   <si>
@@ -199,15 +193,18 @@
     <t>RLC/USDT</t>
   </si>
   <si>
+    <t>CTXC/USDT</t>
+  </si>
+  <si>
     <t>BCH/USDT</t>
   </si>
   <si>
-    <t>OGN/USDT</t>
-  </si>
-  <si>
     <t>COTI/USDT</t>
   </si>
   <si>
+    <t>WTC/USDT</t>
+  </si>
+  <si>
     <t>SOL/USDT</t>
   </si>
   <si>
@@ -271,6 +268,9 @@
     <t>OCEAN/USDT</t>
   </si>
   <si>
+    <t>NMR/USDT</t>
+  </si>
+  <si>
     <t>DOT/USDT</t>
   </si>
   <si>
@@ -331,9 +331,6 @@
     <t>AUDIO/USDT</t>
   </si>
   <si>
-    <t>AKRO/USDT</t>
-  </si>
-  <si>
     <t>AXS/USDT</t>
   </si>
   <si>
@@ -343,9 +340,6 @@
     <t>ROSE/USDT</t>
   </si>
   <si>
-    <t>SKL/USDT</t>
-  </si>
-  <si>
     <t>GRT/USDT</t>
   </si>
   <si>
@@ -361,9 +355,6 @@
     <t>OG/USDT</t>
   </si>
   <si>
-    <t>ATM/USDT</t>
-  </si>
-  <si>
     <t>ASR/USDT</t>
   </si>
   <si>
@@ -400,7 +391,7 @@
     <t>BADGER/USDT</t>
   </si>
   <si>
-    <t>OM/USDT</t>
+    <t>POND/USDT</t>
   </si>
   <si>
     <t>DEGO/USDT</t>
@@ -421,15 +412,15 @@
     <t>CFX/USDT</t>
   </si>
   <si>
+    <t>TKO/USDT</t>
+  </si>
+  <si>
     <t>TLM/USDT</t>
   </si>
   <si>
     <t>BAR/USDT</t>
   </si>
   <si>
-    <t>BAKE/USDT</t>
-  </si>
-  <si>
     <t>BURGER/USDT</t>
   </si>
   <si>
@@ -463,6 +454,9 @@
     <t>KLAY/USDT</t>
   </si>
   <si>
+    <t>PHA/USDT</t>
+  </si>
+  <si>
     <t>BOND/USDT</t>
   </si>
   <si>
@@ -487,6 +481,9 @@
     <t>QUICK/USDT</t>
   </si>
   <si>
+    <t>MBOX/USDT</t>
+  </si>
+  <si>
     <t>XEC/USDT</t>
   </si>
   <si>
@@ -505,6 +502,9 @@
     <t>YGG/USDT</t>
   </si>
   <si>
+    <t>DF/USDT</t>
+  </si>
+  <si>
     <t>FIDA/USDT</t>
   </si>
   <si>
@@ -523,9 +523,6 @@
     <t>LAZIO/USDT</t>
   </si>
   <si>
-    <t>CHESS/USDT</t>
-  </si>
-  <si>
     <t>AUCTION/USDT</t>
   </si>
   <si>
@@ -571,15 +568,18 @@
     <t>FXS/USDT</t>
   </si>
   <si>
+    <t>VOXEL/USDT</t>
+  </si>
+  <si>
     <t>HIGH/USDT</t>
   </si>
   <si>
+    <t>CVX/USDT</t>
+  </si>
+  <si>
     <t>PEOPLE/USDT</t>
   </si>
   <si>
-    <t>SPELL/USDT</t>
-  </si>
-  <si>
     <t>JOE/USDT</t>
   </si>
   <si>
@@ -625,12 +625,15 @@
     <t>APE/USDT</t>
   </si>
   <si>
-    <t>BSW/USDT</t>
+    <t>MULTI/USDT</t>
   </si>
   <si>
     <t>MOB/USDT</t>
   </si>
   <si>
+    <t>REI/USDT</t>
+  </si>
+  <si>
     <t>GAL/USDT</t>
   </si>
   <si>
@@ -673,9 +676,6 @@
     <t>MAGIC/USDT</t>
   </si>
   <si>
-    <t>HIFI/USDT</t>
-  </si>
-  <si>
     <t>RPL/USDT</t>
   </si>
   <si>
@@ -713,6 +713,9 @@
   </si>
   <si>
     <t>RDNT/USDT</t>
+  </si>
+  <si>
+    <t>EDU/USDT</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1076,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E230"/>
+  <dimension ref="A1:E231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1101,16 +1104,16 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.01296273214508297</v>
+        <v>-0.02301420551637222</v>
       </c>
       <c r="C2">
-        <v>0.004040401036198554</v>
+        <v>0.001088871409162043</v>
       </c>
       <c r="D2">
-        <v>0.75</v>
+        <v>0.87</v>
       </c>
       <c r="E2">
-        <v>0.87</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1118,16 +1121,16 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.01778107565888924</v>
+        <v>-0.02061541692921654</v>
       </c>
       <c r="C3">
-        <v>0.00547964859615036</v>
+        <v>0.007060452481992094</v>
       </c>
       <c r="D3">
-        <v>0.74</v>
+        <v>1.1</v>
       </c>
       <c r="E3">
-        <v>0.76</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1135,16 +1138,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.01291572489505974</v>
+        <v>-0.01796023091725472</v>
       </c>
       <c r="C4">
-        <v>0.0003228931223765668</v>
+        <v>0.004824702476680605</v>
       </c>
       <c r="D4">
-        <v>0.76</v>
+        <v>0.96</v>
       </c>
       <c r="E4">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1152,16 +1155,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.07859358841778695</v>
+        <v>-0.03621169916434529</v>
       </c>
       <c r="C5">
-        <v>0.03965702036441578</v>
+        <v>-0.008341056533827605</v>
       </c>
       <c r="D5">
-        <v>0.39</v>
+        <v>1.18</v>
       </c>
       <c r="E5">
-        <v>0.2</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1169,16 +1172,16 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.0009844672938088318</v>
+        <v>-0.02722638030155105</v>
       </c>
       <c r="C6">
-        <v>-0.008664572728257307</v>
+        <v>0.009003074220465606</v>
       </c>
       <c r="D6">
-        <v>1.01</v>
+        <v>0.86</v>
       </c>
       <c r="E6">
-        <v>1.47</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1186,16 +1189,16 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.03876852907639693</v>
+        <v>-0.03576696165191739</v>
       </c>
       <c r="C7">
-        <v>0.01033690658499222</v>
+        <v>-0.006944444444444491</v>
       </c>
       <c r="D7">
-        <v>0.36</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E7">
-        <v>0.45</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1203,16 +1206,16 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.008977149075081679</v>
+        <v>-0.005552617662612351</v>
       </c>
       <c r="C8">
-        <v>0.01793598233995587</v>
+        <v>-0.001584786053882698</v>
       </c>
       <c r="D8">
-        <v>0.92</v>
+        <v>1.04</v>
       </c>
       <c r="E8">
-        <v>1.02</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1220,16 +1223,16 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.001087902523933857</v>
+        <v>-0.01552318896128784</v>
       </c>
       <c r="C9">
-        <v>-0.005811450710288497</v>
+        <v>0.05432799513480639</v>
       </c>
       <c r="D9">
-        <v>0.79</v>
+        <v>0.92</v>
       </c>
       <c r="E9">
-        <v>0.92</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1237,16 +1240,16 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.005834305717619608</v>
+        <v>-0.02414928649835348</v>
       </c>
       <c r="C10">
-        <v>-0.0149425287356322</v>
+        <v>0.01674107142857144</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>1.07</v>
       </c>
       <c r="E10">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1254,16 +1257,16 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.01753424657534251</v>
+        <v>-0.02418558736426464</v>
       </c>
       <c r="C11">
-        <v>0.03011363636363636</v>
+        <v>-0.0318592486923442</v>
       </c>
       <c r="D11">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="E11">
-        <v>0.85</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1271,16 +1274,16 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>-0.001133786848072595</v>
+        <v>0.006622516556291427</v>
       </c>
       <c r="C12">
-        <v>-0.001132502831257111</v>
+        <v>0.0179171332586785</v>
       </c>
       <c r="D12">
-        <v>0.85</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E12">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1288,16 +1291,16 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.05174701459531188</v>
+        <v>-0.06043720531504501</v>
       </c>
       <c r="C13">
-        <v>0.03344021988089785</v>
+        <v>-0.0008594757198108207</v>
       </c>
       <c r="D13">
-        <v>0.42</v>
+        <v>1.17</v>
       </c>
       <c r="E13">
-        <v>0.57</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1305,16 +1308,16 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>-0.01268713524486172</v>
+        <v>-0.01255230125523016</v>
       </c>
       <c r="C14">
-        <v>0.02241265655899793</v>
+        <v>0.003015207131620269</v>
       </c>
       <c r="D14">
-        <v>0.82</v>
+        <v>1.09</v>
       </c>
       <c r="E14">
-        <v>0.51</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1322,16 +1325,16 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>-0.007583965330444234</v>
+        <v>-0.0202296336796062</v>
       </c>
       <c r="C15">
-        <v>0.00329489291598016</v>
+        <v>-0.004352557127312203</v>
       </c>
       <c r="D15">
-        <v>0.8</v>
+        <v>1.52</v>
       </c>
       <c r="E15">
-        <v>0.8100000000000001</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1339,16 +1342,16 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.008730158730158651</v>
+        <v>-0.05359999999999998</v>
       </c>
       <c r="C16">
-        <v>-0.007072691552062962</v>
+        <v>0.001207729468599013</v>
       </c>
       <c r="D16">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>1.07</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1356,16 +1359,16 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.01189860320744961</v>
+        <v>-0.02866698518872431</v>
       </c>
       <c r="C17">
-        <v>0.007816571130797334</v>
+        <v>0.02599313388916149</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>1.26</v>
       </c>
       <c r="E17">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1373,16 +1376,16 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.003985896060095154</v>
+        <v>-0.02761847268336865</v>
       </c>
       <c r="C18">
-        <v>0.0123666718194466</v>
+        <v>-0.0007526719855486818</v>
       </c>
       <c r="D18">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="E18">
-        <v>0.82</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1390,16 +1393,16 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.1557575757575758</v>
+        <v>-0.04157303370786521</v>
       </c>
       <c r="C19">
-        <v>0.006695069993913511</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.27</v>
+        <v>1.02</v>
       </c>
       <c r="E19">
-        <v>0.31</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1407,16 +1410,16 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.0104230533415082</v>
+        <v>-0.0237055520898316</v>
       </c>
       <c r="C20">
-        <v>-0.01450151057401809</v>
+        <v>-0.003726708074534252</v>
       </c>
       <c r="D20">
-        <v>0.89</v>
+        <v>1.15</v>
       </c>
       <c r="E20">
-        <v>1.14</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1424,16 +1427,16 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.0093856655290103</v>
+        <v>-0.03851036817604744</v>
       </c>
       <c r="C21">
-        <v>-0.01469970600587987</v>
+        <v>-0.002962336013542133</v>
       </c>
       <c r="D21">
-        <v>0.95</v>
+        <v>0.86</v>
       </c>
       <c r="E21">
-        <v>1.47</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1441,16 +1444,16 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.01156546881453943</v>
+        <v>-0.0511159107271418</v>
       </c>
       <c r="C22">
-        <v>-0.03107569721115538</v>
+        <v>0.05525709900230247</v>
       </c>
       <c r="D22">
-        <v>1.23</v>
+        <v>0.8</v>
       </c>
       <c r="E22">
-        <v>1.27</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1458,16 +1461,16 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.005861136158701513</v>
+        <v>-0.03377453217708804</v>
       </c>
       <c r="C23">
-        <v>0.01050708085883964</v>
+        <v>-0.01440144014401444</v>
       </c>
       <c r="D23">
-        <v>0.88</v>
+        <v>1.4</v>
       </c>
       <c r="E23">
-        <v>1.08</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1475,16 +1478,16 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>-0.001320132013201245</v>
+        <v>-0.04889178617992177</v>
       </c>
       <c r="C24">
-        <v>0.0113712374581939</v>
+        <v>-0.003244646333549643</v>
       </c>
       <c r="D24">
-        <v>0.84</v>
+        <v>0.99</v>
       </c>
       <c r="E24">
-        <v>0.8</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1492,16 +1495,16 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.003105590062111625</v>
+        <v>-0.05588235294117643</v>
       </c>
       <c r="C25">
-        <v>-0.02431610942249231</v>
+        <v>0.008928571428571343</v>
       </c>
       <c r="D25">
-        <v>0.82</v>
+        <v>1.04</v>
       </c>
       <c r="E25">
-        <v>0.93</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1509,16 +1512,16 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.01575630252100831</v>
+        <v>-0.03707627118644063</v>
       </c>
       <c r="C26">
-        <v>0.004223864836325249</v>
+        <v>-0.002125398512220955</v>
       </c>
       <c r="D26">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="E26">
-        <v>1.14</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1526,16 +1529,16 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.02956358517128119</v>
+        <v>-0.05870841487279842</v>
       </c>
       <c r="C27">
-        <v>-0.0009380863039399243</v>
+        <v>-0.004405286343612325</v>
       </c>
       <c r="D27">
-        <v>0.77</v>
+        <v>1.08</v>
       </c>
       <c r="E27">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1543,16 +1546,16 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.003891050583657627</v>
+        <v>-0.05368516833484985</v>
       </c>
       <c r="C28">
-        <v>0.003211009174311939</v>
+        <v>0.01968503937007877</v>
       </c>
       <c r="D28">
-        <v>0.99</v>
+        <v>0.66</v>
       </c>
       <c r="E28">
-        <v>1.26</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1560,16 +1563,16 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.01390644753476613</v>
+        <v>-0.07008760951188991</v>
       </c>
       <c r="C29">
-        <v>-0.01985111662531019</v>
+        <v>-0.003759398496240605</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>1.27</v>
       </c>
       <c r="E29">
-        <v>1.14</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1577,16 +1580,16 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.01401869158878506</v>
+        <v>-0.05154639175257737</v>
       </c>
       <c r="C30">
-        <v>-0.006944444444444451</v>
+        <v>0.01395348837209304</v>
       </c>
       <c r="D30">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="E30">
-        <v>1.33</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1594,16 +1597,16 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.00235571260306233</v>
+        <v>-0.04244582962303348</v>
       </c>
       <c r="C31">
-        <v>-0.0049736688121708</v>
+        <v>0.005979073243647239</v>
       </c>
       <c r="D31">
-        <v>0.98</v>
+        <v>1.07</v>
       </c>
       <c r="E31">
-        <v>1.29</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1611,16 +1614,16 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.01854625043197789</v>
+        <v>-0.01659842868208465</v>
       </c>
       <c r="C32">
-        <v>-0.001263496439237296</v>
+        <v>-0.003748621830209558</v>
       </c>
       <c r="D32">
-        <v>0.76</v>
+        <v>1.5</v>
       </c>
       <c r="E32">
-        <v>1.07</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1628,16 +1631,16 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>-0.0007602394754346783</v>
+        <v>-0.03358553238604899</v>
       </c>
       <c r="C33">
-        <v>0.003520456707897318</v>
+        <v>0.01109143443004954</v>
       </c>
       <c r="D33">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E33">
-        <v>1.08</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1645,16 +1648,16 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>-0.0006242197253432955</v>
+        <v>-0.06880733944954122</v>
       </c>
       <c r="C34">
-        <v>-0.02433090024330907</v>
+        <v>-0.0199613650998069</v>
       </c>
       <c r="D34">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="E34">
-        <v>1.14</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1662,16 +1665,16 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.01380452788514634</v>
+        <v>-0.0595744680851064</v>
       </c>
       <c r="C35">
-        <v>-0.01811790156841547</v>
+        <v>-0.01587777112043131</v>
       </c>
       <c r="D35">
-        <v>0.92</v>
+        <v>1.11</v>
       </c>
       <c r="E35">
-        <v>1.15</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1679,16 +1682,16 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.003694581280788283</v>
+        <v>-0.0355731225296442</v>
       </c>
       <c r="C36">
-        <v>-0.003690036900368939</v>
+        <v>0.001320132013201358</v>
       </c>
       <c r="D36">
-        <v>0.92</v>
+        <v>1.04</v>
       </c>
       <c r="E36">
-        <v>1.35</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1696,16 +1699,16 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>-0.00178130994793101</v>
+        <v>-0.01406896551724129</v>
       </c>
       <c r="C37">
-        <v>-0.00163912033875147</v>
+        <v>-0.008206811653672404</v>
       </c>
       <c r="D37">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="E37">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1713,16 +1716,16 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.03028263795423959</v>
+        <v>-0.04844061048440611</v>
       </c>
       <c r="C38">
-        <v>-0.005361930294906134</v>
+        <v>0.01012145748987855</v>
       </c>
       <c r="D38">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="E38">
-        <v>0.86</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1730,16 +1733,16 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.01178781925343804</v>
+        <v>-0.04718761796904496</v>
       </c>
       <c r="C39">
-        <v>-0.007384376214535531</v>
+        <v>-0.001891074130105954</v>
       </c>
       <c r="D39">
-        <v>0.6899999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="E39">
-        <v>1.22</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1747,16 +1750,16 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>-0.009150326797385666</v>
+        <v>-0.05407969639468695</v>
       </c>
       <c r="C40">
-        <v>0.01062416998671986</v>
+        <v>-0.01772388059701504</v>
       </c>
       <c r="D40">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="E40">
-        <v>0.76</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1764,16 +1767,16 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>-0.01033735685546267</v>
+        <v>-0.01344067680971553</v>
       </c>
       <c r="C41">
-        <v>-0.07448178943670218</v>
+        <v>0.01605300908532009</v>
       </c>
       <c r="D41">
-        <v>1.06</v>
+        <v>2.06</v>
       </c>
       <c r="E41">
-        <v>1.44</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1781,16 +1784,16 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.01188118811881189</v>
+        <v>-0.0625946491670874</v>
       </c>
       <c r="C42">
-        <v>0.002973240832507546</v>
+        <v>-0.004018081366147675</v>
       </c>
       <c r="D42">
-        <v>1.14</v>
+        <v>1.21</v>
       </c>
       <c r="E42">
-        <v>1.48</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1798,16 +1801,16 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.1277782697246083</v>
+        <v>-0.03972758229284902</v>
       </c>
       <c r="C43">
-        <v>0.04072231435415517</v>
+        <v>0.003416856492027295</v>
       </c>
       <c r="D43">
-        <v>0.5</v>
+        <v>0.87</v>
       </c>
       <c r="E43">
-        <v>0.5</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1815,16 +1818,16 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.0312180143295805</v>
+        <v>-0.01367818950509832</v>
       </c>
       <c r="C44">
-        <v>-0.03392330383480824</v>
+        <v>0.08054558506819812</v>
       </c>
       <c r="D44">
-        <v>1.48</v>
+        <v>0.26</v>
       </c>
       <c r="E44">
-        <v>1.74</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1832,16 +1835,16 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.01184834123222752</v>
+        <v>-0.01696606786427139</v>
       </c>
       <c r="C45">
-        <v>-0.00822561692126904</v>
+        <v>-0.004960317460317464</v>
       </c>
       <c r="D45">
-        <v>0.79</v>
+        <v>1.36</v>
       </c>
       <c r="E45">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1849,16 +1852,16 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.3220810857838871</v>
+        <v>-0.05517241379310334</v>
       </c>
       <c r="C46">
-        <v>0.03426510369702436</v>
+        <v>-0.002758620689655175</v>
       </c>
       <c r="D46">
-        <v>0.25</v>
+        <v>1.35</v>
       </c>
       <c r="E46">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1866,16 +1869,16 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>-0.001901140684410701</v>
+        <v>-0.03640256959314778</v>
       </c>
       <c r="C47">
-        <v>-0.01129943502824865</v>
+        <v>0.004291845493562235</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="E47">
-        <v>1.23</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1883,16 +1886,16 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.006896551724137937</v>
+        <v>-0.04217674443280239</v>
       </c>
       <c r="C48">
-        <v>-0.0281501340482574</v>
+        <v>0.0110260542573194</v>
       </c>
       <c r="D48">
-        <v>1.13</v>
+        <v>1.39</v>
       </c>
       <c r="E48">
-        <v>1.52</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1900,16 +1903,16 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>-0.003344481605351174</v>
+        <v>-0.04283054003724398</v>
       </c>
       <c r="C49">
-        <v>-0.003333333333333336</v>
+        <v>-0.0004662004662004472</v>
       </c>
       <c r="D49">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="E49">
-        <v>0.87</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1917,16 +1920,16 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.009834002045472435</v>
+        <v>-0.03780718336483935</v>
       </c>
       <c r="C50">
-        <v>-0.00345830385915272</v>
+        <v>0.001893939393939448</v>
       </c>
       <c r="D50">
-        <v>0.91</v>
+        <v>1.03</v>
       </c>
       <c r="E50">
-        <v>1.16</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1934,16 +1937,16 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.01337638376383757</v>
+        <v>-0.05638474295190714</v>
       </c>
       <c r="C51">
-        <v>-0.01318181818181812</v>
+        <v>-0.0323101777059773</v>
       </c>
       <c r="D51">
-        <v>0.8100000000000001</v>
+        <v>1.34</v>
       </c>
       <c r="E51">
-        <v>0.93</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1951,16 +1954,16 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.001919385796545161</v>
+        <v>-0.05376173055511381</v>
       </c>
       <c r="C52">
-        <v>-0.007619047619047573</v>
+        <v>-0.005385712022810009</v>
       </c>
       <c r="D52">
-        <v>0.6</v>
+        <v>1.56</v>
       </c>
       <c r="E52">
-        <v>0.8100000000000001</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1968,16 +1971,16 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.005842259006816001</v>
+        <v>-0.05529953917050696</v>
       </c>
       <c r="C53">
-        <v>0.0009765624999998924</v>
+        <v>-0.04159292035398224</v>
       </c>
       <c r="D53">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="E53">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1985,16 +1988,16 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.01201011378002519</v>
+        <v>-0.04246555886947886</v>
       </c>
       <c r="C54">
-        <v>-0.04243710215216736</v>
+        <v>-0.01657536170810508</v>
       </c>
       <c r="D54">
-        <v>0.8100000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="E54">
-        <v>1.11</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2002,16 +2005,16 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.04847396768402138</v>
+        <v>-0.03802281368821299</v>
       </c>
       <c r="C55">
-        <v>0.02061855670103095</v>
+        <v>0.04549469964664309</v>
       </c>
       <c r="D55">
-        <v>0.38</v>
+        <v>0.7</v>
       </c>
       <c r="E55">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2019,16 +2022,16 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.09916805324459223</v>
+        <v>-0.04734848484848496</v>
       </c>
       <c r="C56">
-        <v>0.05303425491218926</v>
+        <v>0.0006365372374284609</v>
       </c>
       <c r="D56">
-        <v>0.7</v>
+        <v>1.19</v>
       </c>
       <c r="E56">
-        <v>0.47</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2036,16 +2039,16 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.006578947368421089</v>
+        <v>-0.03500269251480886</v>
       </c>
       <c r="C57">
-        <v>0.002628120893561149</v>
+        <v>0.03813796971396523</v>
       </c>
       <c r="D57">
-        <v>0.89</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E57">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2053,16 +2056,16 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.0006273525721454767</v>
+        <v>-0.01574803149606297</v>
       </c>
       <c r="C58">
-        <v>-0.0503554502369668</v>
+        <v>-0.004344048653344918</v>
       </c>
       <c r="D58">
-        <v>1.31</v>
+        <v>1.19</v>
       </c>
       <c r="E58">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2070,16 +2073,16 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.01048951048951039</v>
+        <v>0.004322766570605111</v>
       </c>
       <c r="C59">
-        <v>-0.004340277777777778</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>0.79</v>
+        <v>0.52</v>
       </c>
       <c r="E59">
-        <v>0.95</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2087,16 +2090,16 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.009615384615384593</v>
+        <v>-0.04258760107816707</v>
       </c>
       <c r="C60">
-        <v>-0.01575630252100842</v>
+        <v>0.01871216290588875</v>
       </c>
       <c r="D60">
-        <v>1.24</v>
+        <v>1.34</v>
       </c>
       <c r="E60">
-        <v>1.49</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2104,16 +2107,16 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>-0.005873715124816411</v>
+        <v>-0.02448210922787192</v>
       </c>
       <c r="C61">
-        <v>-0.001461988304093609</v>
+        <v>0.0315840621963072</v>
       </c>
       <c r="D61">
-        <v>0.83</v>
+        <v>1.26</v>
       </c>
       <c r="E61">
-        <v>1.21</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2121,16 +2124,16 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.007095793208312244</v>
+        <v>-0.07042982910409115</v>
       </c>
       <c r="C62">
-        <v>-0.01143709597215318</v>
+        <v>0.0707573244886678</v>
       </c>
       <c r="D62">
-        <v>0.8</v>
+        <v>1.03</v>
       </c>
       <c r="E62">
-        <v>0.84</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2138,16 +2141,16 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.001655629139072819</v>
+        <v>-0.03356554781507282</v>
       </c>
       <c r="C63">
-        <v>-0.009787928221859685</v>
+        <v>0.04452054794520552</v>
       </c>
       <c r="D63">
-        <v>1.03</v>
+        <v>0.26</v>
       </c>
       <c r="E63">
-        <v>1.52</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2155,16 +2158,16 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.02039329934450107</v>
+        <v>-0.002256063169768792</v>
       </c>
       <c r="C64">
-        <v>-0.00290697674418613</v>
+        <v>0.05052925903734766</v>
       </c>
       <c r="D64">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="E64">
-        <v>1.16</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2172,16 +2175,16 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.1</v>
+        <v>-0.02906843671320657</v>
       </c>
       <c r="C65">
-        <v>0.00734597156398099</v>
+        <v>0.004837595024188017</v>
       </c>
       <c r="D65">
-        <v>0.29</v>
+        <v>1.1</v>
       </c>
       <c r="E65">
-        <v>0.27</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2189,16 +2192,16 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.00710006656312401</v>
+        <v>-0.03974562798092213</v>
       </c>
       <c r="C66">
-        <v>-0.01481481481481489</v>
+        <v>0.004800000000000004</v>
       </c>
       <c r="D66">
-        <v>1.05</v>
+        <v>1.21</v>
       </c>
       <c r="E66">
-        <v>1.38</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2206,16 +2209,16 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.03305785123966945</v>
+        <v>-0.04774991411885957</v>
       </c>
       <c r="C67">
-        <v>-0.01472995090016368</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>0.61</v>
+        <v>0.92</v>
       </c>
       <c r="E67">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2223,16 +2226,16 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.01686746987951813</v>
+        <v>-0.0241294214422812</v>
       </c>
       <c r="C68">
-        <v>-0.01655405405405392</v>
+        <v>-0.008690928843020106</v>
       </c>
       <c r="D68">
-        <v>0.77</v>
+        <v>1.06</v>
       </c>
       <c r="E68">
-        <v>0.99</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2240,16 +2243,16 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.009423186750428277</v>
+        <v>-0.0591016548463358</v>
       </c>
       <c r="C69">
-        <v>-0.00314735336194562</v>
+        <v>-0.001180637544273883</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="E69">
-        <v>1.64</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2257,16 +2260,16 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.03778040141676487</v>
+        <v>-0.03659043659043644</v>
       </c>
       <c r="C70">
-        <v>0.009535160905840294</v>
+        <v>0.001245847176079781</v>
       </c>
       <c r="D70">
-        <v>0.74</v>
+        <v>1.12</v>
       </c>
       <c r="E70">
-        <v>0.93</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2274,16 +2277,16 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.004101722723543801</v>
+        <v>0.03053624627606761</v>
       </c>
       <c r="C71">
-        <v>0.02511511092507328</v>
+        <v>-0.004215224398710586</v>
       </c>
       <c r="D71">
-        <v>0.82</v>
+        <v>0.21</v>
       </c>
       <c r="E71">
-        <v>1.05</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2291,16 +2294,16 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>-0.003291020216267072</v>
+        <v>-0.01552795031055901</v>
       </c>
       <c r="C72">
-        <v>-0.01501848428835491</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="D72">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="E72">
-        <v>1.3</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2308,16 +2311,16 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>-0.04273858921161827</v>
       </c>
       <c r="C73">
-        <v>0.001602564102564103</v>
+        <v>0.003965769150490414</v>
       </c>
       <c r="D73">
-        <v>0.89</v>
+        <v>1.05</v>
       </c>
       <c r="E73">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2325,16 +2328,16 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>-0.008066184074457</v>
+        <v>-0.03149013108332078</v>
       </c>
       <c r="C74">
-        <v>-0.006189395502372607</v>
+        <v>-0.01075911536162582</v>
       </c>
       <c r="D74">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="E74">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2342,16 +2345,16 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.0123141612854783</v>
+        <v>-0.03374233128834346</v>
       </c>
       <c r="C75">
-        <v>0.0104767689037352</v>
+        <v>0.01248049921996872</v>
       </c>
       <c r="D75">
-        <v>1.25</v>
+        <v>1.14</v>
       </c>
       <c r="E75">
-        <v>1.39</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2359,16 +2362,16 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.00318471337579627</v>
+        <v>-0.05677290836653386</v>
       </c>
       <c r="C76">
-        <v>-0.004754358161648314</v>
+        <v>-0.118558236520703</v>
       </c>
       <c r="D76">
-        <v>1</v>
+        <v>1.59</v>
       </c>
       <c r="E76">
-        <v>1.65</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2376,16 +2379,16 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.09298464092984636</v>
+        <v>-0.0467322557976108</v>
       </c>
       <c r="C77">
-        <v>-0.02390599675850892</v>
+        <v>-0.002103786816269248</v>
       </c>
       <c r="D77">
-        <v>0.7</v>
+        <v>1.12</v>
       </c>
       <c r="E77">
-        <v>0.62</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2393,16 +2396,16 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>-0.01063100137174227</v>
+        <v>-0.02237136465324387</v>
       </c>
       <c r="C78">
-        <v>-0.03328938694792353</v>
+        <v>-0.006124721603563542</v>
       </c>
       <c r="D78">
-        <v>1.22</v>
+        <v>1.05</v>
       </c>
       <c r="E78">
-        <v>1.57</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2410,16 +2413,16 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.04170188785573405</v>
+        <v>-0.03106332138590193</v>
       </c>
       <c r="C79">
-        <v>0.01085094231867512</v>
+        <v>-0.01756440281030447</v>
       </c>
       <c r="D79">
-        <v>0.88</v>
+        <v>1.3</v>
       </c>
       <c r="E79">
-        <v>0.93</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2427,16 +2430,16 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.02833530106257381</v>
+        <v>-0.05108832523835219</v>
       </c>
       <c r="C80">
-        <v>0.007151370679380221</v>
+        <v>0.01619949035311252</v>
       </c>
       <c r="D80">
-        <v>0.6899999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="E80">
-        <v>0.61</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2444,16 +2447,16 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>-0.006394109668668804</v>
+        <v>-0.0445646573930963</v>
       </c>
       <c r="C81">
-        <v>-0.006347374495095365</v>
+        <v>0.1167820069204152</v>
       </c>
       <c r="D81">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="E81">
-        <v>1.2</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2461,16 +2464,16 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.01201108715737608</v>
+        <v>-0.03856562922868732</v>
       </c>
       <c r="C82">
-        <v>-0.02169328110876766</v>
+        <v>-0.01925630810092967</v>
       </c>
       <c r="D82">
-        <v>1.05</v>
+        <v>1.21</v>
       </c>
       <c r="E82">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2478,16 +2481,16 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.009600903614457861</v>
+        <v>-0.02732440858243169</v>
       </c>
       <c r="C83">
-        <v>-0.002064177143929466</v>
+        <v>-0.0034779425224236</v>
       </c>
       <c r="D83">
-        <v>1.01</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E83">
-        <v>1.16</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2495,16 +2498,16 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.02040816326530618</v>
+        <v>-0.06100795755968174</v>
       </c>
       <c r="C84">
-        <v>-0.009383378016085873</v>
+        <v>-0.009162303664921547</v>
       </c>
       <c r="D84">
-        <v>0.78</v>
+        <v>0.26</v>
       </c>
       <c r="E84">
-        <v>1.14</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2512,16 +2515,16 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0</v>
+        <v>-0.0005078720162519045</v>
       </c>
       <c r="C85">
-        <v>-0.004520341536916122</v>
+        <v>0.006131834440470108</v>
       </c>
       <c r="D85">
-        <v>0.59</v>
+        <v>1.1</v>
       </c>
       <c r="E85">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2529,16 +2532,16 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.00335570469798658</v>
+        <v>-0.04925544100801837</v>
       </c>
       <c r="C86">
-        <v>0.001118568232662193</v>
+        <v>0.003452243958573076</v>
       </c>
       <c r="D86">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="E86">
-        <v>1.04</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2546,16 +2549,16 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.004726270185112288</v>
+        <v>-0.009916094584286729</v>
       </c>
       <c r="C87">
-        <v>-0.005886970172684542</v>
+        <v>-0.0003822629969419558</v>
       </c>
       <c r="D87">
-        <v>0.86</v>
+        <v>0.98</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2563,16 +2566,16 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.003552883301448359</v>
+        <v>-0.01351351351351351</v>
       </c>
       <c r="C88">
-        <v>-0.005992917461182208</v>
+        <v>0.00325998370008143</v>
       </c>
       <c r="D88">
-        <v>0.77</v>
+        <v>1.08</v>
       </c>
       <c r="E88">
-        <v>0.82</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2580,16 +2583,16 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.0233812949640286</v>
+        <v>-0.03030303030303023</v>
       </c>
       <c r="C89">
-        <v>-0.01938325991189429</v>
+        <v>-0.009442060085837013</v>
       </c>
       <c r="D89">
-        <v>0.77</v>
+        <v>1.19</v>
       </c>
       <c r="E89">
-        <v>0.83</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2597,16 +2600,16 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.001467710371820017</v>
+        <v>-0.03815261044176711</v>
       </c>
       <c r="C90">
-        <v>-0.02606635071090034</v>
+        <v>-0.004995004995004889</v>
       </c>
       <c r="D90">
-        <v>0.87</v>
+        <v>0.98</v>
       </c>
       <c r="E90">
-        <v>1.17</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2614,16 +2617,16 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.005519093078759005</v>
+        <v>-0.04246542101431695</v>
       </c>
       <c r="C91">
-        <v>0.01928332827209239</v>
+        <v>-0.03550784475639969</v>
       </c>
       <c r="D91">
-        <v>0.92</v>
+        <v>1.65</v>
       </c>
       <c r="E91">
-        <v>1.08</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2631,16 +2634,16 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.0007833920877400015</v>
+        <v>-0.02451361867704269</v>
       </c>
       <c r="C92">
-        <v>-0.0163492979419119</v>
+        <v>0.005670707860774328</v>
       </c>
       <c r="D92">
-        <v>0.67</v>
+        <v>1.1</v>
       </c>
       <c r="E92">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2648,16 +2651,16 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.009608785175017197</v>
+        <v>-0.03376981392143351</v>
       </c>
       <c r="C93">
-        <v>0.008990318118948754</v>
+        <v>0.003460207612456797</v>
       </c>
       <c r="D93">
-        <v>0.71</v>
+        <v>1.37</v>
       </c>
       <c r="E93">
-        <v>0.76</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2665,16 +2668,16 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.001522732216662994</v>
+        <v>0.02378536805320709</v>
       </c>
       <c r="C94">
-        <v>-0.02815717587728508</v>
+        <v>0.002146407591504759</v>
       </c>
       <c r="D94">
-        <v>1.05</v>
+        <v>0.84</v>
       </c>
       <c r="E94">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2682,16 +2685,16 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>-0.006573541495480765</v>
+        <v>0.02660753880266075</v>
       </c>
       <c r="C95">
-        <v>0.03808680248007085</v>
+        <v>-0.004429678848283626</v>
       </c>
       <c r="D95">
-        <v>0.8100000000000001</v>
+        <v>1.39</v>
       </c>
       <c r="E95">
-        <v>0.33</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2699,16 +2702,16 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.002008032128514013</v>
+        <v>-0.0362903225806451</v>
       </c>
       <c r="C96">
-        <v>-0.007968127490039672</v>
+        <v>0.006097560975609807</v>
       </c>
       <c r="D96">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="E96">
-        <v>1.75</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2716,16 +2719,16 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.0448343079922028</v>
+        <v>-0.08460236886632821</v>
       </c>
       <c r="C97">
-        <v>-0.003887269193391754</v>
+        <v>-0.005932203389830444</v>
       </c>
       <c r="D97">
-        <v>0.84</v>
+        <v>1.21</v>
       </c>
       <c r="E97">
-        <v>0.95</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2733,16 +2736,16 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.01393188854489173</v>
+        <v>-0.05097451274362827</v>
       </c>
       <c r="C98">
-        <v>-0.003105590062111845</v>
+        <v>-0.007429420505200595</v>
       </c>
       <c r="D98">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="E98">
-        <v>1.28</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2750,16 +2753,16 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.01793444650587503</v>
+        <v>-0.03217821782178221</v>
       </c>
       <c r="C99">
-        <v>-0.00856793145654822</v>
+        <v>-0.00858369098712447</v>
       </c>
       <c r="D99">
-        <v>0.76</v>
+        <v>1.04</v>
       </c>
       <c r="E99">
-        <v>0.85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2767,16 +2770,16 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.0156179266636487</v>
+        <v>-0.03983488132094935</v>
       </c>
       <c r="C100">
-        <v>-0.009400179051029502</v>
+        <v>0.04606401384083047</v>
       </c>
       <c r="D100">
-        <v>0.74</v>
+        <v>1.03</v>
       </c>
       <c r="E100">
-        <v>1.02</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2784,16 +2787,16 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.04223250261155057</v>
+        <v>-0.05359477124183008</v>
       </c>
       <c r="C101">
-        <v>-0.02744647219428076</v>
+        <v>0.01481481481481486</v>
       </c>
       <c r="D101">
-        <v>1.23</v>
+        <v>1.34</v>
       </c>
       <c r="E101">
-        <v>1.3</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2801,16 +2804,16 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.005327868852458999</v>
+        <v>-0.04636030906872721</v>
       </c>
       <c r="C102">
-        <v>0.01284175642087818</v>
+        <v>0.02294534835210682</v>
       </c>
       <c r="D102">
-        <v>0.99</v>
+        <v>1.13</v>
       </c>
       <c r="E102">
-        <v>1.6</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2818,16 +2821,16 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.002793296089385482</v>
+        <v>-0.03244005641748936</v>
       </c>
       <c r="C103">
-        <v>0.0056338028169013</v>
+        <v>-0.01668984700973576</v>
       </c>
       <c r="D103">
-        <v>1.2</v>
+        <v>1.78</v>
       </c>
       <c r="E103">
-        <v>1.1</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2835,16 +2838,16 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.001447178002894325</v>
+        <v>-0.02576271186440675</v>
       </c>
       <c r="C104">
-        <v>-0.002890173410404563</v>
+        <v>0.003866272458494305</v>
       </c>
       <c r="D104">
-        <v>0.98</v>
+        <v>1.44</v>
       </c>
       <c r="E104">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2852,16 +2855,16 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.01262916188289316</v>
+        <v>-0.04753097836138345</v>
       </c>
       <c r="C105">
-        <v>-0.007527372262773805</v>
+        <v>0.0317278287461774</v>
       </c>
       <c r="D105">
-        <v>0.76</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E105">
-        <v>1.09</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2869,16 +2872,16 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>-0.002860957467098939</v>
+        <v>0.003032600454890155</v>
       </c>
       <c r="C106">
-        <v>-0.009699505515405164</v>
+        <v>0.04516640253565755</v>
       </c>
       <c r="D106">
-        <v>0.92</v>
+        <v>0.58</v>
       </c>
       <c r="E106">
-        <v>1.04</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2886,16 +2889,16 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.0258084577114427</v>
+        <v>-0.03326488706365501</v>
       </c>
       <c r="C107">
-        <v>-0.0135052179251073</v>
+        <v>-0.01013376570733681</v>
       </c>
       <c r="D107">
-        <v>0.75</v>
+        <v>1.04</v>
       </c>
       <c r="E107">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2903,16 +2906,16 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.007531380753138059</v>
+        <v>-0.0506329113924051</v>
       </c>
       <c r="C108">
-        <v>0.005029337803855853</v>
+        <v>0.005089058524173033</v>
       </c>
       <c r="D108">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="E108">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2920,16 +2923,16 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>-0.02622445044350176</v>
+        <v>-0.04935526900844819</v>
       </c>
       <c r="C109">
-        <v>0.006230529595015581</v>
+        <v>0.008960573476702533</v>
       </c>
       <c r="D109">
-        <v>1.06</v>
+        <v>0.71</v>
       </c>
       <c r="E109">
-        <v>1.18</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2937,16 +2940,16 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.005025125628140708</v>
+        <v>-0.05468042730400138</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>-0.02777777777777778</v>
       </c>
       <c r="D110">
-        <v>0.82</v>
+        <v>1</v>
       </c>
       <c r="E110">
-        <v>1.21</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2954,16 +2957,16 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.01169064748201438</v>
+        <v>-0.1082337317397079</v>
       </c>
       <c r="C111">
-        <v>-0.01069042316258358</v>
+        <v>-0.02209226770630281</v>
       </c>
       <c r="D111">
-        <v>0.96</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E111">
-        <v>1.06</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2971,16 +2974,16 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>-0.01129156999226597</v>
+        <v>-0.03474903474903478</v>
       </c>
       <c r="C112">
-        <v>-0.01397326852976908</v>
+        <v>-0.009596928982725536</v>
       </c>
       <c r="D112">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="E112">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2988,16 +2991,16 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>-0.01612337889940423</v>
+        <v>-0.0447390223695112</v>
       </c>
       <c r="C113">
-        <v>0.02015113350125946</v>
+        <v>-0.01627339300244102</v>
       </c>
       <c r="D113">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="E113">
-        <v>0.82</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3005,16 +3008,16 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>-0.05585023400936046</v>
+        <v>0.08557457212713944</v>
       </c>
       <c r="C114">
-        <v>0.05013280212483393</v>
+        <v>-0.007334963325183415</v>
       </c>
       <c r="D114">
-        <v>1.27</v>
+        <v>1.1</v>
       </c>
       <c r="E114">
-        <v>0.68</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3022,16 +3025,16 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.01167315175097277</v>
+        <v>-0.04347826086956521</v>
       </c>
       <c r="C115">
-        <v>-0.01717557251908398</v>
+        <v>0.01949860724233989</v>
       </c>
       <c r="D115">
-        <v>1.06</v>
+        <v>1.44</v>
       </c>
       <c r="E115">
-        <v>1.29</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3039,16 +3042,16 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>-0.01343283582089549</v>
+        <v>-0.01594282572842208</v>
       </c>
       <c r="C116">
-        <v>0.01662887377173097</v>
+        <v>-0.002375948094672537</v>
       </c>
       <c r="D116">
-        <v>0.93</v>
+        <v>1.07</v>
       </c>
       <c r="E116">
-        <v>1.09</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3056,16 +3059,16 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>-0.02291666666666674</v>
+        <v>-0.05795574288724967</v>
       </c>
       <c r="C117">
-        <v>-0.008247422680412463</v>
+        <v>0.04955947136563869</v>
       </c>
       <c r="D117">
-        <v>1.05</v>
+        <v>0.68</v>
       </c>
       <c r="E117">
-        <v>1.41</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3073,16 +3076,16 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.03343465045592701</v>
+        <v>-0.009949041494782936</v>
       </c>
       <c r="C118">
-        <v>-0.01497005988023956</v>
+        <v>0.005369782767878886</v>
       </c>
       <c r="D118">
-        <v>0.46</v>
+        <v>0.89</v>
       </c>
       <c r="E118">
-        <v>0.52</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3090,16 +3093,16 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.01004411902750414</v>
+        <v>-0.0372340425531914</v>
       </c>
       <c r="C119">
-        <v>-0.01241430424309788</v>
+        <v>-0.006033182503770703</v>
       </c>
       <c r="D119">
-        <v>1.01</v>
+        <v>0.96</v>
       </c>
       <c r="E119">
-        <v>1.28</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3107,16 +3110,16 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0</v>
+        <v>-0.06015037593984968</v>
       </c>
       <c r="C120">
-        <v>-0.0142857142857143</v>
+        <v>0.01472320376914024</v>
       </c>
       <c r="D120">
-        <v>0.83</v>
+        <v>2.03</v>
       </c>
       <c r="E120">
-        <v>1.05</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3124,16 +3127,16 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>-0.009905774341628395</v>
+        <v>-0.02492348054219499</v>
       </c>
       <c r="C121">
-        <v>0.004367871875758234</v>
+        <v>-0.009952401557767257</v>
       </c>
       <c r="D121">
-        <v>0.74</v>
+        <v>1.09</v>
       </c>
       <c r="E121">
-        <v>0.76</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3141,16 +3144,16 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.01161890007745934</v>
+        <v>-0.04532803180914526</v>
       </c>
       <c r="C122">
-        <v>-0.005405405405405453</v>
+        <v>0.005608974358974275</v>
       </c>
       <c r="D122">
-        <v>0.73</v>
+        <v>1.01</v>
       </c>
       <c r="E122">
-        <v>1.03</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3158,16 +3161,16 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>-0.004942339373970289</v>
+        <v>0.09018264840182637</v>
       </c>
       <c r="C123">
-        <v>-0.005470459518599567</v>
+        <v>0.004608294930875588</v>
       </c>
       <c r="D123">
-        <v>0.89</v>
+        <v>0.1</v>
       </c>
       <c r="E123">
-        <v>1.02</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3175,16 +3178,16 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>-0.01843910806174945</v>
+        <v>-0.02379664683612766</v>
       </c>
       <c r="C124">
-        <v>0.0004286326618087826</v>
+        <v>-0.002696871628910526</v>
       </c>
       <c r="D124">
-        <v>1.03</v>
+        <v>1.24</v>
       </c>
       <c r="E124">
-        <v>1.23</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3192,16 +3195,16 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.01653892698668815</v>
+        <v>-0.02995391705069135</v>
       </c>
       <c r="C125">
-        <v>-0.007968127490039672</v>
+        <v>0.006182380216383313</v>
       </c>
       <c r="D125">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="E125">
-        <v>1.47</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3209,16 +3212,16 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.005141388174807116</v>
+        <v>-0.06985143232372974</v>
       </c>
       <c r="C126">
-        <v>-0.0284191829484903</v>
+        <v>0.3694104243805182</v>
       </c>
       <c r="D126">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="E126">
-        <v>0.96</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3226,16 +3229,16 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.01138828633405635</v>
+        <v>-0.04092682270648377</v>
       </c>
       <c r="C127">
-        <v>-0.01703033528472593</v>
+        <v>0.03093978070630569</v>
       </c>
       <c r="D127">
-        <v>1.34</v>
+        <v>1.27</v>
       </c>
       <c r="E127">
-        <v>2.29</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3243,16 +3246,16 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.01444866920152101</v>
+        <v>0.02126200274348417</v>
       </c>
       <c r="C128">
-        <v>-0.0007604562737641748</v>
+        <v>-0.008275862068965372</v>
       </c>
       <c r="D128">
-        <v>0.59</v>
+        <v>1.76</v>
       </c>
       <c r="E128">
-        <v>0.8</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3260,16 +3263,16 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.05342545737641097</v>
+        <v>-0.1050804670242979</v>
       </c>
       <c r="C129">
-        <v>0.01413920143383449</v>
+        <v>0.009615384615384625</v>
       </c>
       <c r="D129">
-        <v>0.54</v>
+        <v>0.62</v>
       </c>
       <c r="E129">
-        <v>0.72</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3277,16 +3280,16 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.01160136286201019</v>
+        <v>-0.05150078988941542</v>
       </c>
       <c r="C130">
-        <v>-0.02140841307215728</v>
+        <v>-0.003464566929133826</v>
       </c>
       <c r="D130">
-        <v>1.59</v>
+        <v>1.11</v>
       </c>
       <c r="E130">
-        <v>1.23</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3294,16 +3297,16 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.06142322097378266</v>
+        <v>-0.05003166561114624</v>
       </c>
       <c r="C131">
-        <v>-0.0324909747292419</v>
+        <v>-0.001266624445851753</v>
       </c>
       <c r="D131">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="E131">
-        <v>2.1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3311,16 +3314,16 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.01977671451355657</v>
+        <v>-0.04181184668989551</v>
       </c>
       <c r="C132">
-        <v>0.02017572404816135</v>
+        <v>-0.03050847457627129</v>
       </c>
       <c r="D132">
-        <v>0.49</v>
+        <v>0.87</v>
       </c>
       <c r="E132">
-        <v>0.51</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3328,16 +3331,16 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>-0.00310366232153929</v>
+        <v>-0.02958579881656807</v>
       </c>
       <c r="C133">
-        <v>-0.01046153846153846</v>
+        <v>-0.0006306495690561751</v>
       </c>
       <c r="D133">
-        <v>1.06</v>
+        <v>0.87</v>
       </c>
       <c r="E133">
-        <v>1.33</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3345,16 +3348,16 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0</v>
+        <v>-0.03049613108784716</v>
       </c>
       <c r="C134">
-        <v>-0.01935483870967744</v>
+        <v>-0.006326253953908777</v>
       </c>
       <c r="D134">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="E134">
-        <v>1.67</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3362,16 +3365,16 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.01633764465622863</v>
+        <v>-0.02873563218390797</v>
       </c>
       <c r="C135">
-        <v>-0.02001334222815212</v>
+        <v>-0.001148105625717555</v>
       </c>
       <c r="D135">
-        <v>1.2</v>
+        <v>0.98</v>
       </c>
       <c r="E135">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3379,16 +3382,16 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.01801992792028833</v>
+        <v>-0.03757225433526019</v>
       </c>
       <c r="C136">
-        <v>-0.01903973509933784</v>
+        <v>-0.001233552631578994</v>
       </c>
       <c r="D136">
-        <v>1.54</v>
+        <v>0.91</v>
       </c>
       <c r="E136">
-        <v>1.56</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3396,16 +3399,16 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.01178069777979156</v>
+        <v>-0.05224963715529745</v>
       </c>
       <c r="C137">
-        <v>-0.01163831692032228</v>
+        <v>0.01178203240058911</v>
       </c>
       <c r="D137">
-        <v>0.88</v>
+        <v>1.36</v>
       </c>
       <c r="E137">
-        <v>1.14</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3413,16 +3416,16 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.01592718998862328</v>
+        <v>-0.0457130358705161</v>
       </c>
       <c r="C138">
-        <v>0.01856148491879352</v>
+        <v>0.005720572057205677</v>
       </c>
       <c r="D138">
-        <v>0.73</v>
+        <v>2.11</v>
       </c>
       <c r="E138">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3430,16 +3433,16 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.004150197628458655</v>
+        <v>-0.05818540433925042</v>
       </c>
       <c r="C139">
-        <v>-0.01286549707602336</v>
+        <v>0.002472799208704367</v>
       </c>
       <c r="D139">
+        <v>1.02</v>
+      </c>
+      <c r="E139">
         <v>0.99</v>
-      </c>
-      <c r="E139">
-        <v>1.04</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3447,16 +3450,16 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.008928571428571503</v>
+        <v>-0.03344208809135405</v>
       </c>
       <c r="C140">
-        <v>0.004470938897168443</v>
+        <v>0.005766062602965455</v>
       </c>
       <c r="D140">
-        <v>0.77</v>
+        <v>1.22</v>
       </c>
       <c r="E140">
-        <v>0.95</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3464,16 +3467,16 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>-0.01271970397779827</v>
+        <v>-0.05371024734982337</v>
       </c>
       <c r="C141">
-        <v>-0.06655216831258061</v>
+        <v>-0.02081887578070786</v>
       </c>
       <c r="D141">
-        <v>0.99</v>
+        <v>1.39</v>
       </c>
       <c r="E141">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3481,16 +3484,16 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>-0.04147250698974842</v>
+        <v>-0.03080939947780676</v>
       </c>
       <c r="C142">
-        <v>-0.02718622564567293</v>
+        <v>0.009523809523809533</v>
       </c>
       <c r="D142">
-        <v>1.7</v>
+        <v>1.37</v>
       </c>
       <c r="E142">
-        <v>0.77</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3498,16 +3501,16 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>-0.01482059282371305</v>
+        <v>-0.04006243496357967</v>
       </c>
       <c r="C143">
-        <v>-0.01391035548686241</v>
+        <v>0.006802721088435351</v>
       </c>
       <c r="D143">
-        <v>0.64</v>
+        <v>1.14</v>
       </c>
       <c r="E143">
-        <v>0.65</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3515,16 +3518,16 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.01417434443656982</v>
+        <v>-0.08858965272856138</v>
       </c>
       <c r="C144">
-        <v>-0.02294853963838659</v>
+        <v>0.1016291698991466</v>
       </c>
       <c r="D144">
-        <v>0.98</v>
+        <v>0.88</v>
       </c>
       <c r="E144">
-        <v>1.73</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3532,16 +3535,16 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.0359911406423034</v>
+        <v>-0.01180345868789451</v>
       </c>
       <c r="C145">
-        <v>-0.02212628170534265</v>
+        <v>-0.002189980837667672</v>
       </c>
       <c r="D145">
-        <v>1.24</v>
+        <v>0.74</v>
       </c>
       <c r="E145">
-        <v>2.21</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3549,16 +3552,16 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.01175811870100779</v>
+        <v>-0.05718623481781379</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>-0.007537688442211062</v>
       </c>
       <c r="D146">
-        <v>0.97</v>
+        <v>1.16</v>
       </c>
       <c r="E146">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3566,16 +3569,16 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>-0.0005313496280552019</v>
+        <v>0.005212858384013975</v>
       </c>
       <c r="C147">
-        <v>-0.01547338054025706</v>
+        <v>0.02224199288256228</v>
       </c>
       <c r="D147">
-        <v>1.5</v>
+        <v>1.02</v>
       </c>
       <c r="E147">
-        <v>2.02</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3583,16 +3586,16 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.0151209677419355</v>
+        <v>-0.03743315508021394</v>
       </c>
       <c r="C148">
-        <v>-0.01783060921248139</v>
+        <v>-0.001335113484646196</v>
       </c>
       <c r="D148">
+        <v>0.84</v>
+      </c>
+      <c r="E148">
         <v>0.61</v>
-      </c>
-      <c r="E148">
-        <v>0.95</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3600,16 +3603,16 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.006869479882237376</v>
+        <v>-0.05637982195845694</v>
       </c>
       <c r="C149">
-        <v>-0.01258470474346561</v>
+        <v>-0.0204081632653061</v>
       </c>
       <c r="D149">
-        <v>0.96</v>
+        <v>1.09</v>
       </c>
       <c r="E149">
-        <v>1.17</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3617,16 +3620,16 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.005277044854881272</v>
+        <v>-0.05300353356890445</v>
       </c>
       <c r="C150">
-        <v>0.00396301188903567</v>
+        <v>-0.003527336860670197</v>
       </c>
       <c r="D150">
-        <v>0.86</v>
+        <v>0.95</v>
       </c>
       <c r="E150">
-        <v>1.01</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3634,16 +3637,16 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.003115264797507878</v>
+        <v>0.1852599697122666</v>
       </c>
       <c r="C151">
-        <v>-0.02409638554216874</v>
+        <v>0.01484895033282123</v>
       </c>
       <c r="D151">
-        <v>0.85</v>
+        <v>0.05</v>
       </c>
       <c r="E151">
-        <v>0.74</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3651,16 +3654,16 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.01060070671378093</v>
+        <v>-0.03287197231833908</v>
       </c>
       <c r="C152">
-        <v>-0.02072538860103629</v>
+        <v>-0.006861063464837025</v>
       </c>
       <c r="D152">
-        <v>1.16</v>
+        <v>0.79</v>
       </c>
       <c r="E152">
-        <v>1.32</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3668,16 +3671,16 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>-0.004006009013520257</v>
+        <v>-0.03240740740740743</v>
       </c>
       <c r="C153">
-        <v>-0.008420009905894041</v>
+        <v>-0.02040816326530614</v>
       </c>
       <c r="D153">
-        <v>0.98</v>
+        <v>1.32</v>
       </c>
       <c r="E153">
-        <v>1.12</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3685,16 +3688,16 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.01554404145077718</v>
+        <v>-0.03122497998398729</v>
       </c>
       <c r="C154">
-        <v>-0.01692047377326565</v>
+        <v>-0.00989315393747524</v>
       </c>
       <c r="D154">
-        <v>1.61</v>
+        <v>0.79</v>
       </c>
       <c r="E154">
-        <v>1.2</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3702,16 +3705,16 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>-0.005050505050505067</v>
+        <v>-0.04674220963172793</v>
       </c>
       <c r="C155">
-        <v>-0.008490930142802056</v>
+        <v>0.03836694540088553</v>
       </c>
       <c r="D155">
-        <v>0.97</v>
+        <v>1.04</v>
       </c>
       <c r="E155">
-        <v>1.26</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3719,16 +3722,16 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.02719465648854959</v>
+        <v>-0.0670869513500655</v>
       </c>
       <c r="C156">
-        <v>-0.008974964572508327</v>
+        <v>-0.03772496538993995</v>
       </c>
       <c r="D156">
-        <v>0.79</v>
+        <v>1.6</v>
       </c>
       <c r="E156">
-        <v>1.17</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3736,16 +3739,16 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.0006070908207867228</v>
+        <v>-0.01894317048853432</v>
       </c>
       <c r="C157">
-        <v>-0.04826299836791783</v>
+        <v>0.007738896366083481</v>
       </c>
       <c r="D157">
-        <v>1.46</v>
+        <v>1.69</v>
       </c>
       <c r="E157">
-        <v>1.98</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3753,16 +3756,16 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.004705882352941219</v>
+        <v>-0.03322259136212617</v>
       </c>
       <c r="C158">
-        <v>-0.03719275549805945</v>
+        <v>0</v>
       </c>
       <c r="D158">
-        <v>0.93</v>
+        <v>1.14</v>
       </c>
       <c r="E158">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3770,16 +3773,16 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.01328903654485053</v>
+        <v>-0.0719677906391544</v>
       </c>
       <c r="C159">
-        <v>-0.009256198347107406</v>
+        <v>0.05493924986793446</v>
       </c>
       <c r="D159">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="E159">
-        <v>1.27</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3787,16 +3790,16 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>-0.009863013698630116</v>
+        <v>-0.04970178926441342</v>
       </c>
       <c r="C160">
-        <v>-0.02152852529601724</v>
+        <v>0.0227272727272728</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E160">
-        <v>1.21</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3804,16 +3807,16 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>-0.001486325802615935</v>
+        <v>-0.03851808291678918</v>
       </c>
       <c r="C161">
-        <v>-0.02461627570228789</v>
+        <v>-0.0008789920890711016</v>
       </c>
       <c r="D161">
-        <v>1.03</v>
+        <v>0.96</v>
       </c>
       <c r="E161">
-        <v>1.23</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3821,16 +3824,16 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>-0.007874015748031503</v>
+        <v>-0.03516483516483519</v>
       </c>
       <c r="C162">
-        <v>-0.02072538860103629</v>
+        <v>-0.002202643171806169</v>
       </c>
       <c r="D162">
-        <v>0.64</v>
+        <v>2.85</v>
       </c>
       <c r="E162">
-        <v>0.88</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3838,16 +3841,16 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>-0.004502251125562841</v>
+        <v>0.05362078496406853</v>
       </c>
       <c r="C163">
-        <v>-0.04486873508353236</v>
+        <v>-0.02444323737099399</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E163">
-        <v>1.34</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3855,16 +3858,16 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>-0.01138500104449559</v>
+        <v>-0.05723253023169941</v>
       </c>
       <c r="C164">
-        <v>0.007112970711297071</v>
+        <v>0.007006071929005144</v>
       </c>
       <c r="D164">
-        <v>0.76</v>
+        <v>1.38</v>
       </c>
       <c r="E164">
-        <v>0.8100000000000001</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3872,16 +3875,16 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.004110996916752287</v>
+        <v>-0.02483801295896325</v>
       </c>
       <c r="C165">
-        <v>-0.01606425702811235</v>
+        <v>-0.01798941798941807</v>
       </c>
       <c r="D165">
-        <v>1.41</v>
+        <v>0.9</v>
       </c>
       <c r="E165">
-        <v>1.27</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3889,16 +3892,16 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>-0.00385277481760794</v>
+        <v>-0.01565931831123403</v>
       </c>
       <c r="C166">
-        <v>-0.01040527956597435</v>
+        <v>0.005060191797592315</v>
       </c>
       <c r="D166">
-        <v>1.26</v>
+        <v>1.51</v>
       </c>
       <c r="E166">
-        <v>1.44</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3906,16 +3909,16 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.01820187534473247</v>
+        <v>-0.02484472049689443</v>
       </c>
       <c r="C167">
-        <v>-0.02730192719486078</v>
+        <v>0.00207900207900222</v>
       </c>
       <c r="D167">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="E167">
-        <v>1.4</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3923,16 +3926,16 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.01020408163265302</v>
+        <v>-0.02880964788208153</v>
       </c>
       <c r="C168">
-        <v>-0.006060606060606111</v>
+        <v>-0.01307381564450976</v>
       </c>
       <c r="D168">
-        <v>0.24</v>
+        <v>1.07</v>
       </c>
       <c r="E168">
-        <v>0.24</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3940,16 +3943,16 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.01251819505094614</v>
+        <v>-0.02584493041749505</v>
       </c>
       <c r="C169">
-        <v>-0.007175472928897721</v>
+        <v>-0.001996007984031938</v>
       </c>
       <c r="D169">
-        <v>0.9399999999999999</v>
+        <v>1.42</v>
       </c>
       <c r="E169">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3957,16 +3960,16 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.009940357852882713</v>
+        <v>-0.02884615384615391</v>
       </c>
       <c r="C170">
-        <v>-0.005928853754940716</v>
+        <v>0.009708737864077634</v>
       </c>
       <c r="D170">
-        <v>1.34</v>
+        <v>1.14</v>
       </c>
       <c r="E170">
-        <v>2.27</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3974,16 +3977,16 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.01919385796545099</v>
+        <v>-0.05071770334928224</v>
       </c>
       <c r="C171">
-        <v>-0.024390243902439</v>
+        <v>-0.01040681173131499</v>
       </c>
       <c r="D171">
-        <v>1.47</v>
+        <v>1.04</v>
       </c>
       <c r="E171">
-        <v>1.56</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3991,16 +3994,16 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.01082677165354325</v>
+        <v>-0.02506596306068603</v>
       </c>
       <c r="C172">
-        <v>-0.01167315175097269</v>
+        <v>0.02581521739130435</v>
       </c>
       <c r="D172">
-        <v>1.19</v>
+        <v>0.53</v>
       </c>
       <c r="E172">
-        <v>1.42</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4008,16 +4011,16 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.004032258064516081</v>
+        <v>-0.01957571938668355</v>
       </c>
       <c r="C173">
-        <v>-0.03617571059431534</v>
+        <v>0.01862581005107082</v>
       </c>
       <c r="D173">
-        <v>1.07</v>
+        <v>1.16</v>
       </c>
       <c r="E173">
-        <v>1.27</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4025,16 +4028,16 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.003133719682335397</v>
+        <v>-0.01281138790035604</v>
       </c>
       <c r="C174">
-        <v>-0.01624746792707629</v>
+        <v>-0.02016689847009745</v>
       </c>
       <c r="D174">
-        <v>1.23</v>
+        <v>0.7</v>
       </c>
       <c r="E174">
-        <v>1.26</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4042,16 +4045,16 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.001349527665317178</v>
+        <v>-0.03646055437100217</v>
       </c>
       <c r="C175">
-        <v>-0.03394255874673636</v>
+        <v>-0.01307189542483651</v>
       </c>
       <c r="D175">
-        <v>1.66</v>
+        <v>1.12</v>
       </c>
       <c r="E175">
-        <v>1.45</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4059,16 +4062,16 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.004119464469618961</v>
+        <v>-0.03229440480660914</v>
       </c>
       <c r="C176">
-        <v>-0.01327614379084966</v>
+        <v>0.02656911821332308</v>
       </c>
       <c r="D176">
-        <v>1.09</v>
+        <v>0.79</v>
       </c>
       <c r="E176">
-        <v>1.55</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4076,16 +4079,16 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>-0.003859649122807073</v>
+        <v>-0.04186435947530012</v>
       </c>
       <c r="C177">
-        <v>-0.01724137931034472</v>
+        <v>-0.01565934065934064</v>
       </c>
       <c r="D177">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="E177">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4093,16 +4096,16 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.08037004914715236</v>
+        <v>-0.03480278422273777</v>
       </c>
       <c r="C178">
-        <v>0.004625614339404456</v>
+        <v>0.01762632197414803</v>
       </c>
       <c r="D178">
-        <v>0.62</v>
+        <v>1.19</v>
       </c>
       <c r="E178">
-        <v>0.46</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4110,16 +4113,16 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.08585445625511036</v>
+        <v>0.01306240928882423</v>
       </c>
       <c r="C179">
-        <v>-0.01668653158522043</v>
+        <v>0.02528507684680226</v>
       </c>
       <c r="D179">
-        <v>1.23</v>
+        <v>0.39</v>
       </c>
       <c r="E179">
-        <v>1.24</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4127,16 +4130,16 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.006567745074191228</v>
+        <v>-0.0849999999999999</v>
       </c>
       <c r="C180">
-        <v>-0.01317365269461071</v>
+        <v>0.1500974658869395</v>
       </c>
       <c r="D180">
-        <v>1.44</v>
+        <v>0.31</v>
       </c>
       <c r="E180">
-        <v>1.48</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4144,16 +4147,16 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.01237113402061857</v>
+        <v>-0.03911944072586641</v>
       </c>
       <c r="C181">
-        <v>0</v>
+        <v>-0.02472008143085647</v>
       </c>
       <c r="D181">
-        <v>1.12</v>
+        <v>0.89</v>
       </c>
       <c r="E181">
-        <v>1.09</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4161,16 +4164,16 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>-0.01799016163035841</v>
+        <v>-0.03585434173669462</v>
       </c>
       <c r="C182">
-        <v>-0.0146429064787954</v>
+        <v>-0.01218836565096957</v>
       </c>
       <c r="D182">
-        <v>0.9399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4178,16 +4181,16 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.1375394321766561</v>
+        <v>-0.05079681274900403</v>
       </c>
       <c r="C183">
-        <v>-0.05999999999999992</v>
+        <v>-0.04302103250478026</v>
       </c>
       <c r="D183">
-        <v>0.63</v>
+        <v>1.27</v>
       </c>
       <c r="E183">
-        <v>0.8100000000000001</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4195,16 +4198,16 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.001130582249858631</v>
+        <v>-0.05604719764011797</v>
       </c>
       <c r="C184">
-        <v>0.006806579693703833</v>
+        <v>-0.01872074882995331</v>
       </c>
       <c r="D184">
-        <v>1.2</v>
+        <v>0.98</v>
       </c>
       <c r="E184">
-        <v>1.67</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4212,16 +4215,16 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.01210777626193708</v>
+        <v>-0.03737259343148343</v>
       </c>
       <c r="C185">
-        <v>-0.001695202576707958</v>
+        <v>0.005128205128205117</v>
       </c>
       <c r="D185">
-        <v>1.03</v>
+        <v>0.99</v>
       </c>
       <c r="E185">
-        <v>1.34</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4229,16 +4232,16 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.01787678767876789</v>
+        <v>-0.1049264235444657</v>
       </c>
       <c r="C186">
-        <v>0.03101878201479801</v>
+        <v>0.1854003536246528</v>
       </c>
       <c r="D186">
-        <v>0.6</v>
+        <v>1.34</v>
       </c>
       <c r="E186">
-        <v>0.99</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4246,16 +4249,16 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.04036036036036034</v>
+        <v>-0.03138564273789649</v>
       </c>
       <c r="C187">
-        <v>0.01025265470523614</v>
+        <v>-0.003072721065209962</v>
       </c>
       <c r="D187">
-        <v>0.49</v>
+        <v>0.6</v>
       </c>
       <c r="E187">
-        <v>0.5600000000000001</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4263,13 +4266,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.05761316872427989</v>
+        <v>-0.07170294494238162</v>
       </c>
       <c r="C188">
-        <v>-0.006793478260869571</v>
+        <v>0.01830065359477126</v>
       </c>
       <c r="D188">
-        <v>0.59</v>
+        <v>1.03</v>
       </c>
       <c r="E188">
         <v>0.89</v>
@@ -4280,16 +4283,16 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.02083333333333343</v>
+        <v>-0.03392794683455749</v>
       </c>
       <c r="C189">
-        <v>-0.003561253561253564</v>
+        <v>0.005964912280701877</v>
       </c>
       <c r="D189">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="E189">
-        <v>1.22</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4297,16 +4300,16 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.01751459549624679</v>
+        <v>-0.02233037503578578</v>
       </c>
       <c r="C190">
-        <v>-0.02871072589382448</v>
+        <v>-0.009878633926051377</v>
       </c>
       <c r="D190">
-        <v>0.84</v>
+        <v>1.59</v>
       </c>
       <c r="E190">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4314,16 +4317,16 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>-0.009966777408637884</v>
+        <v>-0.02861685214626394</v>
       </c>
       <c r="C191">
-        <v>-0.03836930455635477</v>
+        <v>0.00399680255795373</v>
       </c>
       <c r="D191">
-        <v>0.95</v>
+        <v>1.27</v>
       </c>
       <c r="E191">
-        <v>1.24</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4331,16 +4334,16 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.0169491525423729</v>
+        <v>-0.01666666666666668</v>
       </c>
       <c r="C192">
         <v>0</v>
       </c>
       <c r="D192">
-        <v>0.62</v>
+        <v>0.66</v>
       </c>
       <c r="E192">
-        <v>0.43</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4348,16 +4351,16 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>-0.007619047619047573</v>
+        <v>-0.1102803738317756</v>
       </c>
       <c r="C193">
-        <v>-0.05035971223021578</v>
+        <v>0.1389473684210527</v>
       </c>
       <c r="D193">
-        <v>0.9399999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E193">
-        <v>0.97</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4365,16 +4368,16 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>-0.004928315412186459</v>
+        <v>-0.0338610378188214</v>
       </c>
       <c r="C194">
-        <v>-0.01414677276746246</v>
+        <v>-0.01003052769297861</v>
       </c>
       <c r="D194">
-        <v>0.87</v>
+        <v>1.4</v>
       </c>
       <c r="E194">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4382,16 +4385,16 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.008214901831923116</v>
+        <v>-0.03433051371982676</v>
       </c>
       <c r="C195">
-        <v>-0.02240089603584128</v>
+        <v>0.0009887529353603511</v>
       </c>
       <c r="D195">
-        <v>1.54</v>
+        <v>0.88</v>
       </c>
       <c r="E195">
-        <v>1.9</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4399,16 +4402,16 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>-0.001113999257333783</v>
+        <v>-0.03458997279440336</v>
       </c>
       <c r="C196">
-        <v>-0.01608187134502922</v>
+        <v>-0.004636785162287426</v>
       </c>
       <c r="D196">
-        <v>0.95</v>
+        <v>1.06</v>
       </c>
       <c r="E196">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4416,16 +4419,16 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.01338432122370935</v>
+        <v>-0.02777777777777775</v>
       </c>
       <c r="C197">
-        <v>-0.00950570342205324</v>
+        <v>0.003984063745019896</v>
       </c>
       <c r="D197">
-        <v>0.74</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E197">
-        <v>0.99</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4433,16 +4436,16 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.04853351955307271</v>
+        <v>-0.03824308973873532</v>
       </c>
       <c r="C198">
-        <v>0.01760057471264374</v>
+        <v>-0.01750465549348245</v>
       </c>
       <c r="D198">
-        <v>0.15</v>
+        <v>1.02</v>
       </c>
       <c r="E198">
-        <v>0.14</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4450,16 +4453,16 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.010230179028133</v>
+        <v>-0.05874840357598983</v>
       </c>
       <c r="C199">
-        <v>-0.005154639175257736</v>
+        <v>0.03306878306878309</v>
       </c>
       <c r="D199">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="E199">
-        <v>1</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4467,16 +4470,16 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.02008149010477298</v>
+        <v>-0.01784596117720725</v>
       </c>
       <c r="C200">
-        <v>-0.009221902017291074</v>
+        <v>-0.001872659176030033</v>
       </c>
       <c r="D200">
-        <v>1.23</v>
+        <v>0.84</v>
       </c>
       <c r="E200">
-        <v>1.54</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4484,16 +4487,16 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>-0.003192338387869095</v>
+        <v>0.04303797468354428</v>
       </c>
       <c r="C201">
-        <v>-0.02865995352439955</v>
+        <v>-0.1152993348115298</v>
       </c>
       <c r="D201">
-        <v>1.04</v>
+        <v>0.91</v>
       </c>
       <c r="E201">
-        <v>1.16</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4501,16 +4504,16 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.02670623145400579</v>
+        <v>-0.06074074074074079</v>
       </c>
       <c r="C202">
-        <v>-0.03147353361945623</v>
+        <v>0.001483679525222553</v>
       </c>
       <c r="D202">
-        <v>1.23</v>
+        <v>0.89</v>
       </c>
       <c r="E202">
-        <v>1.28</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4518,16 +4521,16 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.01008645533141211</v>
+        <v>-0.1149696561024949</v>
       </c>
       <c r="C203">
-        <v>-0.02111189303307532</v>
+        <v>0.211745904914103</v>
       </c>
       <c r="D203">
-        <v>0.79</v>
+        <v>0.97</v>
       </c>
       <c r="E203">
-        <v>0.98</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4535,16 +4538,16 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>-0.007246376811594049</v>
+        <v>-0.05722460658082965</v>
       </c>
       <c r="C204">
-        <v>-0.008076009501187602</v>
+        <v>0.007230657989877085</v>
       </c>
       <c r="D204">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="E204">
-        <v>1.55</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4552,16 +4555,16 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.02946593001841623</v>
+        <v>-0.03103288559518283</v>
       </c>
       <c r="C205">
-        <v>-0.01983173076923072</v>
+        <v>0</v>
       </c>
       <c r="D205">
-        <v>0.85</v>
+        <v>1.29</v>
       </c>
       <c r="E205">
-        <v>1.35</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4569,16 +4572,16 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.01098901098901096</v>
+        <v>-0.04529616724738672</v>
       </c>
       <c r="C206">
-        <v>-0.01566757493187997</v>
+        <v>-0.06147809025506858</v>
       </c>
       <c r="D206">
-        <v>0.93</v>
+        <v>0.6</v>
       </c>
       <c r="E206">
-        <v>1.02</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4586,16 +4589,16 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.01692157500813531</v>
+        <v>-0.09034267912772595</v>
       </c>
       <c r="C207">
-        <v>-0.006344558321132283</v>
+        <v>-0.01359703337453653</v>
       </c>
       <c r="D207">
-        <v>0.6</v>
+        <v>1.23</v>
       </c>
       <c r="E207">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4603,16 +4606,16 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.01754186125982461</v>
+        <v>-0.07338810750591836</v>
       </c>
       <c r="C208">
-        <v>-0.01948341126697842</v>
+        <v>0.03874056877539168</v>
       </c>
       <c r="D208">
-        <v>0.75</v>
+        <v>1.15</v>
       </c>
       <c r="E208">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4620,16 +4623,16 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>-0.01196808510638296</v>
+        <v>-0.02762047844678141</v>
       </c>
       <c r="C209">
-        <v>-0.02776880852437841</v>
+        <v>-0.007248044178554982</v>
       </c>
       <c r="D209">
-        <v>0.87</v>
+        <v>1.2</v>
       </c>
       <c r="E209">
-        <v>1</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4637,16 +4640,16 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>-0.009186351706036827</v>
+        <v>-0.04593012945557729</v>
       </c>
       <c r="C210">
-        <v>-0.01359223300970868</v>
+        <v>0.005184125849124047</v>
       </c>
       <c r="D210">
-        <v>0.91</v>
+        <v>1.07</v>
       </c>
       <c r="E210">
-        <v>1.89</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4654,16 +4657,16 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.02738904193449637</v>
+        <v>-0.03777472527472531</v>
       </c>
       <c r="C211">
-        <v>-0.01072071745410147</v>
+        <v>-0.00547570157426417</v>
       </c>
       <c r="D211">
-        <v>0.79</v>
+        <v>1.04</v>
       </c>
       <c r="E211">
-        <v>1.01</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4671,16 +4674,16 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>-0.006644518272425255</v>
+        <v>-0.02745217912693834</v>
       </c>
       <c r="C212">
-        <v>-0.01149425287356323</v>
+        <v>-0.001123779645541254</v>
       </c>
       <c r="D212">
-        <v>0.73</v>
+        <v>0.85</v>
       </c>
       <c r="E212">
-        <v>0.82</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4688,16 +4691,16 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.03881700554528646</v>
+        <v>-0.03146853146853131</v>
       </c>
       <c r="C213">
-        <v>-0.02400362318840579</v>
+        <v>-0.01724137931034484</v>
       </c>
       <c r="D213">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="E213">
-        <v>0.96</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4705,16 +4708,16 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.03593442622950832</v>
+        <v>-0.08219461697722559</v>
       </c>
       <c r="C214">
-        <v>-0.007794232268121597</v>
+        <v>0.03075608714224683</v>
       </c>
       <c r="D214">
-        <v>0.76</v>
+        <v>1.4</v>
       </c>
       <c r="E214">
-        <v>1.21</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4722,16 +4725,16 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>-0.006483756483756527</v>
+        <v>-0.1100817438692098</v>
       </c>
       <c r="C215">
-        <v>-0.008985704560925867</v>
+        <v>0.05532261821569996</v>
       </c>
       <c r="D215">
-        <v>1.04</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E215">
-        <v>1.34</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4739,16 +4742,16 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.03267536522805842</v>
+        <v>-0.06016526668032496</v>
       </c>
       <c r="C216">
-        <v>-0.02534537147829869</v>
+        <v>-0.005038469394702697</v>
       </c>
       <c r="D216">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="E216">
-        <v>1.93</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4756,16 +4759,16 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.006307339449541227</v>
+        <v>-0.08656918756657299</v>
       </c>
       <c r="C217">
-        <v>-0.01717342342342341</v>
+        <v>0.01392703020792467</v>
       </c>
       <c r="D217">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="E217">
-        <v>1.39</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4773,16 +4776,16 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>-0.01795078660750304</v>
+        <v>-0.02000000000000004</v>
       </c>
       <c r="C218">
-        <v>0.002020610224287764</v>
+        <v>0.008149959250203721</v>
       </c>
       <c r="D218">
-        <v>0.61</v>
+        <v>1.85</v>
       </c>
       <c r="E218">
-        <v>1.19</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4790,16 +4793,16 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.001597266074811433</v>
+        <v>-0.03643428134653972</v>
       </c>
       <c r="C219">
-        <v>-0.03903893246264687</v>
+        <v>0.02960986995665221</v>
       </c>
       <c r="D219">
-        <v>1.38</v>
+        <v>1.07</v>
       </c>
       <c r="E219">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4807,16 +4810,16 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>-0.01744993059686696</v>
+        <v>-0.02176083050509083</v>
       </c>
       <c r="C220">
-        <v>-0.01535471331389694</v>
+        <v>-0.0001987281399046769</v>
       </c>
       <c r="D220">
-        <v>1.31</v>
+        <v>0.95</v>
       </c>
       <c r="E220">
-        <v>2.13</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4824,16 +4827,16 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.01419110690633871</v>
+        <v>-0.08156959678665218</v>
       </c>
       <c r="C221">
-        <v>0.07643418631878235</v>
+        <v>0.0283665338645419</v>
       </c>
       <c r="D221">
-        <v>1.21</v>
+        <v>1.08</v>
       </c>
       <c r="E221">
-        <v>1.23</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4841,16 +4844,16 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.004945756222080483</v>
+        <v>-0.05439595192915885</v>
       </c>
       <c r="C222">
-        <v>-0.0308049535603716</v>
+        <v>0.03923822032506972</v>
       </c>
       <c r="D222">
-        <v>1.06</v>
+        <v>0.93</v>
       </c>
       <c r="E222">
-        <v>2.09</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4858,16 +4861,16 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>-0.03962798220784474</v>
+        <v>-0.06443914081145588</v>
       </c>
       <c r="C223">
-        <v>0.02604381976023146</v>
+        <v>0.03394039735099339</v>
       </c>
       <c r="D223">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="E223">
-        <v>0.91</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4875,16 +4878,16 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.01094605160281471</v>
+        <v>-0.06858054226475285</v>
       </c>
       <c r="C224">
-        <v>-0.01675552170601677</v>
+        <v>-0.005577689243027806</v>
       </c>
       <c r="D224">
-        <v>1.08</v>
+        <v>1.35</v>
       </c>
       <c r="E224">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4892,16 +4895,16 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>-0.02173913043478252</v>
+        <v>-0.01951779563719862</v>
       </c>
       <c r="C225">
-        <v>-0.05075593952483801</v>
+        <v>0.05006105006105014</v>
       </c>
       <c r="D225">
-        <v>0.68</v>
+        <v>1.08</v>
       </c>
       <c r="E225">
-        <v>0.57</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4909,16 +4912,16 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.01571031866047122</v>
+        <v>-0.02145442510651036</v>
       </c>
       <c r="C226">
-        <v>0.005393350225504961</v>
+        <v>0.007267226606300383</v>
       </c>
       <c r="D226">
-        <v>0.5600000000000001</v>
+        <v>1.01</v>
       </c>
       <c r="E226">
-        <v>0.64</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4926,16 +4929,16 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.01905717151454362</v>
+        <v>-0.05545213866137172</v>
       </c>
       <c r="C227">
-        <v>-0.02746475944945736</v>
+        <v>-0.04160871120295675</v>
       </c>
       <c r="D227">
-        <v>1.09</v>
+        <v>1.75</v>
       </c>
       <c r="E227">
-        <v>1.32</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4943,16 +4946,16 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.03155940594059412</v>
+        <v>-0.05996745321399519</v>
       </c>
       <c r="C228">
-        <v>-0.01314186248912107</v>
+        <v>0.003592716583653288</v>
       </c>
       <c r="D228">
-        <v>0.7</v>
+        <v>1.06</v>
       </c>
       <c r="E228">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -4960,16 +4963,16 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.05727619855748838</v>
+        <v>-0.05774058577405849</v>
       </c>
       <c r="C229">
-        <v>-0.02773178807947025</v>
+        <v>-0.02338204592901877</v>
       </c>
       <c r="D229">
-        <v>0.9</v>
+        <v>0.68</v>
       </c>
       <c r="E229">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -4977,16 +4980,33 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.01521164021164019</v>
+        <v>-0.05876807039597736</v>
       </c>
       <c r="C230">
-        <v>-0.01436031331592694</v>
+        <v>0.02153648344583748</v>
       </c>
       <c r="D230">
-        <v>0.67</v>
+        <v>1.02</v>
       </c>
       <c r="E230">
-        <v>0.92</v>
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B231">
+        <v>0.005507221158865449</v>
+      </c>
+      <c r="C231">
+        <v>-0.04963994709426688</v>
+      </c>
+      <c r="D231">
+        <v>1.66</v>
+      </c>
+      <c r="E231">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/CyberOasisProjectReborn/scripts/market_performers/performance.xlsx
+++ b/CyberOasisProjectReborn/scripts/market_performers/performance.xlsx
@@ -423,10 +423,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>-0.01418371185578043</v>
+        <v>-0.009219000258021269</v>
       </c>
       <c r="C2">
-        <v>-0.02708472684926538</v>
+        <v>-0.02183202576393324</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -440,10 +440,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>-0.002090951007409521</v>
+        <v>0.002086685977899299</v>
       </c>
       <c r="C3">
-        <v>-0.02105876914672321</v>
+        <v>-0.02120603067816259</v>
       </c>
       <c r="D3">
         <v>1.14</v>
@@ -457,16 +457,16 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>-0.007513884351519148</v>
+        <v>-0.003926701570680776</v>
       </c>
       <c r="C4">
-        <v>-0.02112676056338017</v>
+        <v>-0.02016645326504467</v>
       </c>
       <c r="D4">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="E4">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>
